--- a/Odds-Data-Clean/2007-08.xlsx
+++ b/Odds-Data-Clean/2007-08.xlsx
@@ -19571,7 +19571,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>2007-08-102</t>
+          <t>2007-08-0102</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -19613,7 +19613,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>2007-08-102</t>
+          <t>2007-08-0102</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -19655,7 +19655,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>2007-08-102</t>
+          <t>2007-08-0102</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -19697,7 +19697,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>2007-08-102</t>
+          <t>2007-08-0102</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -19739,7 +19739,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>2007-08-102</t>
+          <t>2007-08-0102</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -19781,7 +19781,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>2007-08-102</t>
+          <t>2007-08-0102</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -19823,7 +19823,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>2007-08-102</t>
+          <t>2007-08-0102</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -19865,7 +19865,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>2007-08-102</t>
+          <t>2007-08-0102</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -19907,7 +19907,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>2007-08-102</t>
+          <t>2007-08-0102</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -19949,7 +19949,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>2007-08-102</t>
+          <t>2007-08-0102</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -19991,7 +19991,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>2007-08-102</t>
+          <t>2007-08-0102</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -20033,7 +20033,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>2007-08-102</t>
+          <t>2007-08-0102</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -20075,7 +20075,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>2007-08-103</t>
+          <t>2007-08-0103</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -20117,7 +20117,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>2007-08-103</t>
+          <t>2007-08-0103</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -20159,7 +20159,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>2007-08-103</t>
+          <t>2007-08-0103</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -20201,7 +20201,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>2007-08-104</t>
+          <t>2007-08-0104</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -20243,7 +20243,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>2007-08-104</t>
+          <t>2007-08-0104</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -20285,7 +20285,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>2007-08-104</t>
+          <t>2007-08-0104</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -20327,7 +20327,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>2007-08-104</t>
+          <t>2007-08-0104</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -20369,7 +20369,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>2007-08-104</t>
+          <t>2007-08-0104</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -20411,7 +20411,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>2007-08-104</t>
+          <t>2007-08-0104</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -20453,7 +20453,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>2007-08-104</t>
+          <t>2007-08-0104</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -20495,7 +20495,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>2007-08-104</t>
+          <t>2007-08-0104</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -20537,7 +20537,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>2007-08-104</t>
+          <t>2007-08-0104</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -20579,7 +20579,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>2007-08-104</t>
+          <t>2007-08-0104</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -20621,7 +20621,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>2007-08-104</t>
+          <t>2007-08-0104</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -20663,7 +20663,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>2007-08-104</t>
+          <t>2007-08-0104</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -20705,7 +20705,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>2007-08-105</t>
+          <t>2007-08-0105</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -20747,7 +20747,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>2007-08-105</t>
+          <t>2007-08-0105</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -20789,7 +20789,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>2007-08-105</t>
+          <t>2007-08-0105</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -20831,7 +20831,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>2007-08-105</t>
+          <t>2007-08-0105</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -20873,7 +20873,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>2007-08-105</t>
+          <t>2007-08-0105</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -20915,7 +20915,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>2007-08-105</t>
+          <t>2007-08-0105</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -20957,7 +20957,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>2007-08-106</t>
+          <t>2007-08-0106</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -20999,7 +20999,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>2007-08-106</t>
+          <t>2007-08-0106</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -21041,7 +21041,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>2007-08-106</t>
+          <t>2007-08-0106</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -21083,7 +21083,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>2007-08-106</t>
+          <t>2007-08-0106</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -21125,7 +21125,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>2007-08-106</t>
+          <t>2007-08-0106</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -21167,7 +21167,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>2007-08-106</t>
+          <t>2007-08-0106</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -21209,7 +21209,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>2007-08-106</t>
+          <t>2007-08-0106</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -21251,7 +21251,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>2007-08-106</t>
+          <t>2007-08-0106</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -21293,7 +21293,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>2007-08-107</t>
+          <t>2007-08-0107</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -21335,7 +21335,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>2007-08-107</t>
+          <t>2007-08-0107</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -21377,7 +21377,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>2007-08-108</t>
+          <t>2007-08-0108</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -21419,7 +21419,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>2007-08-108</t>
+          <t>2007-08-0108</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -21461,7 +21461,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>2007-08-108</t>
+          <t>2007-08-0108</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -21503,7 +21503,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>2007-08-108</t>
+          <t>2007-08-0108</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -21545,7 +21545,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>2007-08-108</t>
+          <t>2007-08-0108</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -21587,7 +21587,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>2007-08-108</t>
+          <t>2007-08-0108</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -21629,7 +21629,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>2007-08-108</t>
+          <t>2007-08-0108</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -21671,7 +21671,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>2007-08-108</t>
+          <t>2007-08-0108</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -21713,7 +21713,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>2007-08-108</t>
+          <t>2007-08-0108</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -21755,7 +21755,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>2007-08-109</t>
+          <t>2007-08-0109</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -21797,7 +21797,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>2007-08-109</t>
+          <t>2007-08-0109</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -21839,7 +21839,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>2007-08-109</t>
+          <t>2007-08-0109</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -21881,7 +21881,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>2007-08-109</t>
+          <t>2007-08-0109</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -21923,7 +21923,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>2007-08-109</t>
+          <t>2007-08-0109</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -21965,7 +21965,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>2007-08-109</t>
+          <t>2007-08-0109</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -22007,7 +22007,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>2007-08-109</t>
+          <t>2007-08-0109</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -22049,7 +22049,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>2007-08-109</t>
+          <t>2007-08-0109</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -22091,7 +22091,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>2007-08-109</t>
+          <t>2007-08-0109</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -22133,7 +22133,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>2007-08-109</t>
+          <t>2007-08-0109</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -22175,7 +22175,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>2007-08-109</t>
+          <t>2007-08-0109</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -22217,7 +22217,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>2007-08-110</t>
+          <t>2007-08-0110</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -22259,7 +22259,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>2007-08-110</t>
+          <t>2007-08-0110</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -22301,7 +22301,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>2007-08-110</t>
+          <t>2007-08-0110</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -22343,7 +22343,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>2007-08-111</t>
+          <t>2007-08-0111</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -22385,7 +22385,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>2007-08-111</t>
+          <t>2007-08-0111</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -22427,7 +22427,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>2007-08-111</t>
+          <t>2007-08-0111</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -22469,7 +22469,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>2007-08-111</t>
+          <t>2007-08-0111</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -22511,7 +22511,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>2007-08-111</t>
+          <t>2007-08-0111</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -22553,7 +22553,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>2007-08-111</t>
+          <t>2007-08-0111</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -22595,7 +22595,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>2007-08-111</t>
+          <t>2007-08-0111</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -22637,7 +22637,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>2007-08-111</t>
+          <t>2007-08-0111</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -22679,7 +22679,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>2007-08-111</t>
+          <t>2007-08-0111</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -22721,7 +22721,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>2007-08-111</t>
+          <t>2007-08-0111</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -22763,7 +22763,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>2007-08-111</t>
+          <t>2007-08-0111</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -22805,7 +22805,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>2007-08-112</t>
+          <t>2007-08-0112</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -22847,7 +22847,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>2007-08-112</t>
+          <t>2007-08-0112</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -22889,7 +22889,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>2007-08-112</t>
+          <t>2007-08-0112</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -22931,7 +22931,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>2007-08-112</t>
+          <t>2007-08-0112</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -22973,7 +22973,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>2007-08-112</t>
+          <t>2007-08-0112</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -23015,7 +23015,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>2007-08-112</t>
+          <t>2007-08-0112</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -23057,7 +23057,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>2007-08-112</t>
+          <t>2007-08-0112</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -23099,7 +23099,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>2007-08-113</t>
+          <t>2007-08-0113</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -23141,7 +23141,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>2007-08-113</t>
+          <t>2007-08-0113</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -23183,7 +23183,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>2007-08-113</t>
+          <t>2007-08-0113</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -23225,7 +23225,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>2007-08-113</t>
+          <t>2007-08-0113</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -23267,7 +23267,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>2007-08-113</t>
+          <t>2007-08-0113</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -23309,7 +23309,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>2007-08-113</t>
+          <t>2007-08-0113</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -23351,7 +23351,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>2007-08-114</t>
+          <t>2007-08-0114</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
@@ -23393,7 +23393,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>2007-08-114</t>
+          <t>2007-08-0114</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -23435,7 +23435,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>2007-08-114</t>
+          <t>2007-08-0114</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -23477,7 +23477,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>2007-08-114</t>
+          <t>2007-08-0114</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -23519,7 +23519,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>2007-08-114</t>
+          <t>2007-08-0114</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -23561,7 +23561,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>2007-08-114</t>
+          <t>2007-08-0114</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -23603,7 +23603,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2007-08-114</t>
+          <t>2007-08-0114</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -23645,7 +23645,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>2007-08-115</t>
+          <t>2007-08-0115</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -23687,7 +23687,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>2007-08-115</t>
+          <t>2007-08-0115</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
@@ -23729,7 +23729,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>2007-08-115</t>
+          <t>2007-08-0115</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -23771,7 +23771,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>2007-08-115</t>
+          <t>2007-08-0115</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
@@ -23813,7 +23813,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>2007-08-115</t>
+          <t>2007-08-0115</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -23855,7 +23855,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>2007-08-115</t>
+          <t>2007-08-0115</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -23897,7 +23897,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>2007-08-115</t>
+          <t>2007-08-0115</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -23939,7 +23939,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>2007-08-115</t>
+          <t>2007-08-0115</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
@@ -23981,7 +23981,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>2007-08-116</t>
+          <t>2007-08-0116</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
@@ -24023,7 +24023,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>2007-08-116</t>
+          <t>2007-08-0116</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -24065,7 +24065,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>2007-08-116</t>
+          <t>2007-08-0116</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
@@ -24107,7 +24107,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>2007-08-116</t>
+          <t>2007-08-0116</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
@@ -24149,7 +24149,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>2007-08-116</t>
+          <t>2007-08-0116</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -24191,7 +24191,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>2007-08-116</t>
+          <t>2007-08-0116</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -24233,7 +24233,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>2007-08-116</t>
+          <t>2007-08-0116</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -24275,7 +24275,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>2007-08-116</t>
+          <t>2007-08-0116</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -24317,7 +24317,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>2007-08-117</t>
+          <t>2007-08-0117</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -24359,7 +24359,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>2007-08-117</t>
+          <t>2007-08-0117</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -24401,7 +24401,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>2007-08-117</t>
+          <t>2007-08-0117</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -24443,7 +24443,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>2007-08-118</t>
+          <t>2007-08-0118</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -24485,7 +24485,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>2007-08-118</t>
+          <t>2007-08-0118</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -24527,7 +24527,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>2007-08-118</t>
+          <t>2007-08-0118</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -24569,7 +24569,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>2007-08-118</t>
+          <t>2007-08-0118</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -24611,7 +24611,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>2007-08-118</t>
+          <t>2007-08-0118</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -24653,7 +24653,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>2007-08-118</t>
+          <t>2007-08-0118</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -24695,7 +24695,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>2007-08-118</t>
+          <t>2007-08-0118</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -24737,7 +24737,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>2007-08-118</t>
+          <t>2007-08-0118</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -24779,7 +24779,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2007-08-118</t>
+          <t>2007-08-0118</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -24821,7 +24821,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>2007-08-118</t>
+          <t>2007-08-0118</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
@@ -24863,7 +24863,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>2007-08-119</t>
+          <t>2007-08-0119</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -24905,7 +24905,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>2007-08-119</t>
+          <t>2007-08-0119</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
@@ -24947,7 +24947,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>2007-08-119</t>
+          <t>2007-08-0119</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -24989,7 +24989,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>2007-08-119</t>
+          <t>2007-08-0119</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -25031,7 +25031,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>2007-08-119</t>
+          <t>2007-08-0119</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -25073,7 +25073,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>2007-08-119</t>
+          <t>2007-08-0119</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -25115,7 +25115,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>2007-08-119</t>
+          <t>2007-08-0119</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
@@ -25157,7 +25157,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>2007-08-119</t>
+          <t>2007-08-0119</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
@@ -25199,7 +25199,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>2007-08-119</t>
+          <t>2007-08-0119</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
@@ -25241,7 +25241,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>2007-08-119</t>
+          <t>2007-08-0119</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
@@ -25283,7 +25283,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>2007-08-119</t>
+          <t>2007-08-0119</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
@@ -25325,7 +25325,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>2007-08-120</t>
+          <t>2007-08-0120</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -25367,7 +25367,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>2007-08-121</t>
+          <t>2007-08-0121</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -25409,7 +25409,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>2007-08-121</t>
+          <t>2007-08-0121</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -25451,7 +25451,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>2007-08-121</t>
+          <t>2007-08-0121</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -25493,7 +25493,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>2007-08-121</t>
+          <t>2007-08-0121</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
@@ -25535,7 +25535,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>2007-08-121</t>
+          <t>2007-08-0121</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
@@ -25577,7 +25577,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>2007-08-121</t>
+          <t>2007-08-0121</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -25619,7 +25619,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>2007-08-121</t>
+          <t>2007-08-0121</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -25661,7 +25661,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>2007-08-121</t>
+          <t>2007-08-0121</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -25703,7 +25703,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>2007-08-121</t>
+          <t>2007-08-0121</t>
         </is>
       </c>
       <c r="C604" t="inlineStr">
@@ -25745,7 +25745,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>2007-08-121</t>
+          <t>2007-08-0121</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -25787,7 +25787,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>2007-08-121</t>
+          <t>2007-08-0121</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -25829,7 +25829,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>2007-08-121</t>
+          <t>2007-08-0121</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -25871,7 +25871,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>2007-08-121</t>
+          <t>2007-08-0121</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -25913,7 +25913,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>2007-08-122</t>
+          <t>2007-08-0122</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -25955,7 +25955,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>2007-08-122</t>
+          <t>2007-08-0122</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -25997,7 +25997,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>2007-08-123</t>
+          <t>2007-08-0123</t>
         </is>
       </c>
       <c r="C611" t="inlineStr">
@@ -26039,7 +26039,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>2007-08-123</t>
+          <t>2007-08-0123</t>
         </is>
       </c>
       <c r="C612" t="inlineStr">
@@ -26081,7 +26081,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>2007-08-123</t>
+          <t>2007-08-0123</t>
         </is>
       </c>
       <c r="C613" t="inlineStr">
@@ -26123,7 +26123,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>2007-08-123</t>
+          <t>2007-08-0123</t>
         </is>
       </c>
       <c r="C614" t="inlineStr">
@@ -26165,7 +26165,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>2007-08-123</t>
+          <t>2007-08-0123</t>
         </is>
       </c>
       <c r="C615" t="inlineStr">
@@ -26207,7 +26207,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>2007-08-123</t>
+          <t>2007-08-0123</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -26249,7 +26249,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>2007-08-123</t>
+          <t>2007-08-0123</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -26291,7 +26291,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>2007-08-123</t>
+          <t>2007-08-0123</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -26333,7 +26333,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>2007-08-123</t>
+          <t>2007-08-0123</t>
         </is>
       </c>
       <c r="C619" t="inlineStr">
@@ -26375,7 +26375,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>2007-08-123</t>
+          <t>2007-08-0123</t>
         </is>
       </c>
       <c r="C620" t="inlineStr">
@@ -26417,7 +26417,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>2007-08-123</t>
+          <t>2007-08-0123</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -26459,7 +26459,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>2007-08-123</t>
+          <t>2007-08-0123</t>
         </is>
       </c>
       <c r="C622" t="inlineStr">
@@ -26501,7 +26501,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>2007-08-124</t>
+          <t>2007-08-0124</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -26543,7 +26543,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>2007-08-124</t>
+          <t>2007-08-0124</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -26585,7 +26585,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>2007-08-124</t>
+          <t>2007-08-0124</t>
         </is>
       </c>
       <c r="C625" t="inlineStr">
@@ -26627,7 +26627,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>2007-08-125</t>
+          <t>2007-08-0125</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -26669,7 +26669,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2007-08-125</t>
+          <t>2007-08-0125</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -26711,7 +26711,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>2007-08-125</t>
+          <t>2007-08-0125</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -26753,7 +26753,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>2007-08-125</t>
+          <t>2007-08-0125</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -26795,7 +26795,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2007-08-125</t>
+          <t>2007-08-0125</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -26837,7 +26837,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2007-08-125</t>
+          <t>2007-08-0125</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -26879,7 +26879,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>2007-08-125</t>
+          <t>2007-08-0125</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -26921,7 +26921,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>2007-08-125</t>
+          <t>2007-08-0125</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -26963,7 +26963,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>2007-08-125</t>
+          <t>2007-08-0125</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -27005,7 +27005,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2007-08-125</t>
+          <t>2007-08-0125</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -27047,7 +27047,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2007-08-125</t>
+          <t>2007-08-0125</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -27089,7 +27089,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2007-08-125</t>
+          <t>2007-08-0125</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -27131,7 +27131,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2007-08-125</t>
+          <t>2007-08-0125</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -27173,7 +27173,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2007-08-126</t>
+          <t>2007-08-0126</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -27215,7 +27215,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>2007-08-126</t>
+          <t>2007-08-0126</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -27257,7 +27257,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>2007-08-126</t>
+          <t>2007-08-0126</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -27299,7 +27299,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>2007-08-126</t>
+          <t>2007-08-0126</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -27341,7 +27341,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>2007-08-127</t>
+          <t>2007-08-0127</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -27383,7 +27383,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>2007-08-127</t>
+          <t>2007-08-0127</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -27425,7 +27425,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2007-08-127</t>
+          <t>2007-08-0127</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -27467,7 +27467,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>2007-08-127</t>
+          <t>2007-08-0127</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -27509,7 +27509,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>2007-08-127</t>
+          <t>2007-08-0127</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -27551,7 +27551,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>2007-08-127</t>
+          <t>2007-08-0127</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -27593,7 +27593,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2007-08-127</t>
+          <t>2007-08-0127</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -27635,7 +27635,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2007-08-127</t>
+          <t>2007-08-0127</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -27677,7 +27677,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2007-08-127</t>
+          <t>2007-08-0127</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -27719,7 +27719,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>2007-08-127</t>
+          <t>2007-08-0127</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -27761,7 +27761,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>2007-08-128</t>
+          <t>2007-08-0128</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -27803,7 +27803,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2007-08-128</t>
+          <t>2007-08-0128</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -27845,7 +27845,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>2007-08-128</t>
+          <t>2007-08-0128</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -27887,7 +27887,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2007-08-128</t>
+          <t>2007-08-0128</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -27929,7 +27929,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>2007-08-129</t>
+          <t>2007-08-0129</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -27971,7 +27971,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>2007-08-129</t>
+          <t>2007-08-0129</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -28013,7 +28013,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>2007-08-129</t>
+          <t>2007-08-0129</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -28055,7 +28055,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>2007-08-129</t>
+          <t>2007-08-0129</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -28097,7 +28097,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>2007-08-129</t>
+          <t>2007-08-0129</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -28139,7 +28139,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>2007-08-129</t>
+          <t>2007-08-0129</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -28181,7 +28181,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>2007-08-129</t>
+          <t>2007-08-0129</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -28223,7 +28223,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>2007-08-129</t>
+          <t>2007-08-0129</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -28265,7 +28265,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>2007-08-129</t>
+          <t>2007-08-0129</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -28307,7 +28307,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2007-08-130</t>
+          <t>2007-08-0130</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -28349,7 +28349,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>2007-08-130</t>
+          <t>2007-08-0130</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -28391,7 +28391,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>2007-08-130</t>
+          <t>2007-08-0130</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -28433,7 +28433,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>2007-08-130</t>
+          <t>2007-08-0130</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -28475,7 +28475,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>2007-08-130</t>
+          <t>2007-08-0130</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -28517,7 +28517,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>2007-08-130</t>
+          <t>2007-08-0130</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -28559,7 +28559,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>2007-08-130</t>
+          <t>2007-08-0130</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -28601,7 +28601,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2007-08-130</t>
+          <t>2007-08-0130</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -28643,7 +28643,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>2007-08-130</t>
+          <t>2007-08-0130</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -28685,7 +28685,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>2007-08-130</t>
+          <t>2007-08-0130</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -28727,7 +28727,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>2007-08-131</t>
+          <t>2007-08-0131</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -28769,7 +28769,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>2007-08-131</t>
+          <t>2007-08-0131</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -28811,7 +28811,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>2007-08-131</t>
+          <t>2007-08-0131</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -28853,7 +28853,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>2007-08-131</t>
+          <t>2007-08-0131</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -28895,7 +28895,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>2007-08-201</t>
+          <t>2007-08-0201</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -28937,7 +28937,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>2007-08-201</t>
+          <t>2007-08-0201</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -28979,7 +28979,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>2007-08-201</t>
+          <t>2007-08-0201</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -29021,7 +29021,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>2007-08-201</t>
+          <t>2007-08-0201</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -29063,7 +29063,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>2007-08-201</t>
+          <t>2007-08-0201</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -29105,7 +29105,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2007-08-201</t>
+          <t>2007-08-0201</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -29147,7 +29147,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2007-08-201</t>
+          <t>2007-08-0201</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -29189,7 +29189,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2007-08-201</t>
+          <t>2007-08-0201</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -29231,7 +29231,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>2007-08-201</t>
+          <t>2007-08-0201</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
@@ -29273,7 +29273,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>2007-08-202</t>
+          <t>2007-08-0202</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -29315,7 +29315,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>2007-08-202</t>
+          <t>2007-08-0202</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -29357,7 +29357,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>2007-08-202</t>
+          <t>2007-08-0202</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -29399,7 +29399,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2007-08-202</t>
+          <t>2007-08-0202</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -29441,7 +29441,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>2007-08-202</t>
+          <t>2007-08-0202</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -29483,7 +29483,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>2007-08-202</t>
+          <t>2007-08-0202</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -29525,7 +29525,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2007-08-202</t>
+          <t>2007-08-0202</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -29567,7 +29567,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>2007-08-202</t>
+          <t>2007-08-0202</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -29609,7 +29609,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>2007-08-203</t>
+          <t>2007-08-0203</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -29651,7 +29651,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>2007-08-203</t>
+          <t>2007-08-0203</t>
         </is>
       </c>
       <c r="C698" t="inlineStr">
@@ -29693,7 +29693,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>2007-08-204</t>
+          <t>2007-08-0204</t>
         </is>
       </c>
       <c r="C699" t="inlineStr">
@@ -29735,7 +29735,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>2007-08-204</t>
+          <t>2007-08-0204</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -29777,7 +29777,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>2007-08-204</t>
+          <t>2007-08-0204</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -29819,7 +29819,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>2007-08-204</t>
+          <t>2007-08-0204</t>
         </is>
       </c>
       <c r="C702" t="inlineStr">
@@ -29861,7 +29861,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>2007-08-204</t>
+          <t>2007-08-0204</t>
         </is>
       </c>
       <c r="C703" t="inlineStr">
@@ -29903,7 +29903,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>2007-08-204</t>
+          <t>2007-08-0204</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -29945,7 +29945,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>2007-08-204</t>
+          <t>2007-08-0204</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -29987,7 +29987,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>2007-08-204</t>
+          <t>2007-08-0204</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -30029,7 +30029,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>2007-08-204</t>
+          <t>2007-08-0204</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -30071,7 +30071,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>2007-08-205</t>
+          <t>2007-08-0205</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -30113,7 +30113,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>2007-08-205</t>
+          <t>2007-08-0205</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -30155,7 +30155,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>2007-08-205</t>
+          <t>2007-08-0205</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -30197,7 +30197,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>2007-08-205</t>
+          <t>2007-08-0205</t>
         </is>
       </c>
       <c r="C711" t="inlineStr">
@@ -30239,7 +30239,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>2007-08-205</t>
+          <t>2007-08-0205</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -30281,7 +30281,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>2007-08-206</t>
+          <t>2007-08-0206</t>
         </is>
       </c>
       <c r="C713" t="inlineStr">
@@ -30323,7 +30323,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>2007-08-206</t>
+          <t>2007-08-0206</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -30365,7 +30365,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>2007-08-206</t>
+          <t>2007-08-0206</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -30407,7 +30407,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>2007-08-206</t>
+          <t>2007-08-0206</t>
         </is>
       </c>
       <c r="C716" t="inlineStr">
@@ -30449,7 +30449,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>2007-08-206</t>
+          <t>2007-08-0206</t>
         </is>
       </c>
       <c r="C717" t="inlineStr">
@@ -30491,7 +30491,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>2007-08-206</t>
+          <t>2007-08-0206</t>
         </is>
       </c>
       <c r="C718" t="inlineStr">
@@ -30533,7 +30533,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>2007-08-206</t>
+          <t>2007-08-0206</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -30575,7 +30575,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>2007-08-206</t>
+          <t>2007-08-0206</t>
         </is>
       </c>
       <c r="C720" t="inlineStr">
@@ -30617,7 +30617,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>2007-08-206</t>
+          <t>2007-08-0206</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -30659,7 +30659,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>2007-08-206</t>
+          <t>2007-08-0206</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -30701,7 +30701,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>2007-08-206</t>
+          <t>2007-08-0206</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -30743,7 +30743,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>2007-08-207</t>
+          <t>2007-08-0207</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -30785,7 +30785,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>2007-08-207</t>
+          <t>2007-08-0207</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -30827,7 +30827,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>2007-08-207</t>
+          <t>2007-08-0207</t>
         </is>
       </c>
       <c r="C726" t="inlineStr">
@@ -30869,7 +30869,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>2007-08-208</t>
+          <t>2007-08-0208</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -30911,7 +30911,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>2007-08-208</t>
+          <t>2007-08-0208</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -30953,7 +30953,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>2007-08-208</t>
+          <t>2007-08-0208</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -30995,7 +30995,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>2007-08-208</t>
+          <t>2007-08-0208</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -31037,7 +31037,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>2007-08-208</t>
+          <t>2007-08-0208</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
@@ -31079,7 +31079,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>2007-08-208</t>
+          <t>2007-08-0208</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -31121,7 +31121,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>2007-08-208</t>
+          <t>2007-08-0208</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -31163,7 +31163,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>2007-08-208</t>
+          <t>2007-08-0208</t>
         </is>
       </c>
       <c r="C734" t="inlineStr">
@@ -31205,7 +31205,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>2007-08-208</t>
+          <t>2007-08-0208</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -31247,7 +31247,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>2007-08-208</t>
+          <t>2007-08-0208</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -31289,7 +31289,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>2007-08-208</t>
+          <t>2007-08-0208</t>
         </is>
       </c>
       <c r="C737" t="inlineStr">
@@ -31331,7 +31331,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>2007-08-209</t>
+          <t>2007-08-0209</t>
         </is>
       </c>
       <c r="C738" t="inlineStr">
@@ -31373,7 +31373,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>2007-08-209</t>
+          <t>2007-08-0209</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -31415,7 +31415,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>2007-08-209</t>
+          <t>2007-08-0209</t>
         </is>
       </c>
       <c r="C740" t="inlineStr">
@@ -31457,7 +31457,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>2007-08-209</t>
+          <t>2007-08-0209</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -31499,7 +31499,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>2007-08-209</t>
+          <t>2007-08-0209</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -31541,7 +31541,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>2007-08-209</t>
+          <t>2007-08-0209</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -31583,7 +31583,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>2007-08-209</t>
+          <t>2007-08-0209</t>
         </is>
       </c>
       <c r="C744" t="inlineStr">
@@ -31625,7 +31625,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>2007-08-210</t>
+          <t>2007-08-0210</t>
         </is>
       </c>
       <c r="C745" t="inlineStr">
@@ -31667,7 +31667,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>2007-08-210</t>
+          <t>2007-08-0210</t>
         </is>
       </c>
       <c r="C746" t="inlineStr">
@@ -31709,7 +31709,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>2007-08-210</t>
+          <t>2007-08-0210</t>
         </is>
       </c>
       <c r="C747" t="inlineStr">
@@ -31751,7 +31751,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>2007-08-210</t>
+          <t>2007-08-0210</t>
         </is>
       </c>
       <c r="C748" t="inlineStr">
@@ -31793,7 +31793,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>2007-08-210</t>
+          <t>2007-08-0210</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -31835,7 +31835,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>2007-08-210</t>
+          <t>2007-08-0210</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -31877,7 +31877,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>2007-08-210</t>
+          <t>2007-08-0210</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -31919,7 +31919,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>2007-08-211</t>
+          <t>2007-08-0211</t>
         </is>
       </c>
       <c r="C752" t="inlineStr">
@@ -31961,7 +31961,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>2007-08-211</t>
+          <t>2007-08-0211</t>
         </is>
       </c>
       <c r="C753" t="inlineStr">
@@ -32003,7 +32003,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>2007-08-211</t>
+          <t>2007-08-0211</t>
         </is>
       </c>
       <c r="C754" t="inlineStr">
@@ -32045,7 +32045,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>2007-08-211</t>
+          <t>2007-08-0211</t>
         </is>
       </c>
       <c r="C755" t="inlineStr">
@@ -32087,7 +32087,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>2007-08-211</t>
+          <t>2007-08-0211</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -32129,7 +32129,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>2007-08-211</t>
+          <t>2007-08-0211</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -32171,7 +32171,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>2007-08-211</t>
+          <t>2007-08-0211</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
@@ -32213,7 +32213,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>2007-08-212</t>
+          <t>2007-08-0212</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -32255,7 +32255,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>2007-08-212</t>
+          <t>2007-08-0212</t>
         </is>
       </c>
       <c r="C760" t="inlineStr">
@@ -32297,7 +32297,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>2007-08-212</t>
+          <t>2007-08-0212</t>
         </is>
       </c>
       <c r="C761" t="inlineStr">
@@ -32339,7 +32339,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>2007-08-212</t>
+          <t>2007-08-0212</t>
         </is>
       </c>
       <c r="C762" t="inlineStr">
@@ -32381,7 +32381,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>2007-08-212</t>
+          <t>2007-08-0212</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -32423,7 +32423,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>2007-08-212</t>
+          <t>2007-08-0212</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -32465,7 +32465,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>2007-08-213</t>
+          <t>2007-08-0213</t>
         </is>
       </c>
       <c r="C765" t="inlineStr">
@@ -32507,7 +32507,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>2007-08-213</t>
+          <t>2007-08-0213</t>
         </is>
       </c>
       <c r="C766" t="inlineStr">
@@ -32549,7 +32549,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>2007-08-213</t>
+          <t>2007-08-0213</t>
         </is>
       </c>
       <c r="C767" t="inlineStr">
@@ -32591,7 +32591,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>2007-08-213</t>
+          <t>2007-08-0213</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
@@ -32633,7 +32633,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>2007-08-213</t>
+          <t>2007-08-0213</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -32675,7 +32675,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>2007-08-213</t>
+          <t>2007-08-0213</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
@@ -32717,7 +32717,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>2007-08-213</t>
+          <t>2007-08-0213</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -32759,7 +32759,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>2007-08-213</t>
+          <t>2007-08-0213</t>
         </is>
       </c>
       <c r="C772" t="inlineStr">
@@ -32801,7 +32801,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>2007-08-213</t>
+          <t>2007-08-0213</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -32843,7 +32843,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>2007-08-213</t>
+          <t>2007-08-0213</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
@@ -32885,7 +32885,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>2007-08-213</t>
+          <t>2007-08-0213</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
@@ -32927,7 +32927,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>2007-08-213</t>
+          <t>2007-08-0213</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -32969,7 +32969,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>2007-08-213</t>
+          <t>2007-08-0213</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
@@ -33011,7 +33011,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>2007-08-213</t>
+          <t>2007-08-0213</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -33053,7 +33053,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>2007-08-214</t>
+          <t>2007-08-0214</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -33095,7 +33095,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>2007-08-214</t>
+          <t>2007-08-0214</t>
         </is>
       </c>
       <c r="C780" t="inlineStr">
@@ -33137,7 +33137,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>2007-08-219</t>
+          <t>2007-08-0219</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
@@ -33179,7 +33179,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>2007-08-219</t>
+          <t>2007-08-0219</t>
         </is>
       </c>
       <c r="C782" t="inlineStr">
@@ -33221,7 +33221,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>2007-08-219</t>
+          <t>2007-08-0219</t>
         </is>
       </c>
       <c r="C783" t="inlineStr">
@@ -33263,7 +33263,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>2007-08-219</t>
+          <t>2007-08-0219</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
@@ -33305,7 +33305,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>2007-08-219</t>
+          <t>2007-08-0219</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
@@ -33347,7 +33347,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>2007-08-219</t>
+          <t>2007-08-0219</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
@@ -33389,7 +33389,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>2007-08-219</t>
+          <t>2007-08-0219</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
@@ -33431,7 +33431,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>2007-08-219</t>
+          <t>2007-08-0219</t>
         </is>
       </c>
       <c r="C788" t="inlineStr">
@@ -33473,7 +33473,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>2007-08-219</t>
+          <t>2007-08-0219</t>
         </is>
       </c>
       <c r="C789" t="inlineStr">
@@ -33515,7 +33515,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>2007-08-219</t>
+          <t>2007-08-0219</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -33557,7 +33557,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>2007-08-220</t>
+          <t>2007-08-0220</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
@@ -33599,7 +33599,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>2007-08-220</t>
+          <t>2007-08-0220</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
@@ -33641,7 +33641,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>2007-08-220</t>
+          <t>2007-08-0220</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
@@ -33683,7 +33683,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>2007-08-220</t>
+          <t>2007-08-0220</t>
         </is>
       </c>
       <c r="C794" t="inlineStr">
@@ -33725,7 +33725,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>2007-08-220</t>
+          <t>2007-08-0220</t>
         </is>
       </c>
       <c r="C795" t="inlineStr">
@@ -33767,7 +33767,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>2007-08-220</t>
+          <t>2007-08-0220</t>
         </is>
       </c>
       <c r="C796" t="inlineStr">
@@ -33809,7 +33809,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>2007-08-220</t>
+          <t>2007-08-0220</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
@@ -33851,7 +33851,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>2007-08-220</t>
+          <t>2007-08-0220</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -33893,7 +33893,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>2007-08-220</t>
+          <t>2007-08-0220</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -33935,7 +33935,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>2007-08-220</t>
+          <t>2007-08-0220</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
@@ -33977,7 +33977,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>2007-08-221</t>
+          <t>2007-08-0221</t>
         </is>
       </c>
       <c r="C801" t="inlineStr">
@@ -34019,7 +34019,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>2007-08-221</t>
+          <t>2007-08-0221</t>
         </is>
       </c>
       <c r="C802" t="inlineStr">
@@ -34061,7 +34061,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>2007-08-221</t>
+          <t>2007-08-0221</t>
         </is>
       </c>
       <c r="C803" t="inlineStr">
@@ -34103,7 +34103,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>2007-08-222</t>
+          <t>2007-08-0222</t>
         </is>
       </c>
       <c r="C804" t="inlineStr">
@@ -34145,7 +34145,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>2007-08-222</t>
+          <t>2007-08-0222</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
@@ -34187,7 +34187,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>2007-08-222</t>
+          <t>2007-08-0222</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
@@ -34229,7 +34229,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>2007-08-222</t>
+          <t>2007-08-0222</t>
         </is>
       </c>
       <c r="C807" t="inlineStr">
@@ -34271,7 +34271,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>2007-08-222</t>
+          <t>2007-08-0222</t>
         </is>
       </c>
       <c r="C808" t="inlineStr">
@@ -34313,7 +34313,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>2007-08-222</t>
+          <t>2007-08-0222</t>
         </is>
       </c>
       <c r="C809" t="inlineStr">
@@ -34355,7 +34355,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>2007-08-222</t>
+          <t>2007-08-0222</t>
         </is>
       </c>
       <c r="C810" t="inlineStr">
@@ -34397,7 +34397,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>2007-08-222</t>
+          <t>2007-08-0222</t>
         </is>
       </c>
       <c r="C811" t="inlineStr">
@@ -34439,7 +34439,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>2007-08-222</t>
+          <t>2007-08-0222</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
@@ -34481,7 +34481,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>2007-08-222</t>
+          <t>2007-08-0222</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -34523,7 +34523,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>2007-08-222</t>
+          <t>2007-08-0222</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -34565,7 +34565,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>2007-08-222</t>
+          <t>2007-08-0222</t>
         </is>
       </c>
       <c r="C815" t="inlineStr">
@@ -34607,7 +34607,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>2007-08-222</t>
+          <t>2007-08-0222</t>
         </is>
       </c>
       <c r="C816" t="inlineStr">
@@ -34649,7 +34649,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>2007-08-223</t>
+          <t>2007-08-0223</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -34691,7 +34691,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>2007-08-223</t>
+          <t>2007-08-0223</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -34733,7 +34733,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>2007-08-223</t>
+          <t>2007-08-0223</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -34775,7 +34775,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>2007-08-223</t>
+          <t>2007-08-0223</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -34817,7 +34817,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>2007-08-223</t>
+          <t>2007-08-0223</t>
         </is>
       </c>
       <c r="C821" t="inlineStr">
@@ -34859,7 +34859,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>2007-08-223</t>
+          <t>2007-08-0223</t>
         </is>
       </c>
       <c r="C822" t="inlineStr">
@@ -34901,7 +34901,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>2007-08-223</t>
+          <t>2007-08-0223</t>
         </is>
       </c>
       <c r="C823" t="inlineStr">
@@ -34943,7 +34943,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>2007-08-224</t>
+          <t>2007-08-0224</t>
         </is>
       </c>
       <c r="C824" t="inlineStr">
@@ -34985,7 +34985,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>2007-08-224</t>
+          <t>2007-08-0224</t>
         </is>
       </c>
       <c r="C825" t="inlineStr">
@@ -35027,7 +35027,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>2007-08-224</t>
+          <t>2007-08-0224</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
@@ -35069,7 +35069,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>2007-08-224</t>
+          <t>2007-08-0224</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
@@ -35111,7 +35111,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>2007-08-224</t>
+          <t>2007-08-0224</t>
         </is>
       </c>
       <c r="C828" t="inlineStr">
@@ -35153,7 +35153,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>2007-08-224</t>
+          <t>2007-08-0224</t>
         </is>
       </c>
       <c r="C829" t="inlineStr">
@@ -35195,7 +35195,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>2007-08-224</t>
+          <t>2007-08-0224</t>
         </is>
       </c>
       <c r="C830" t="inlineStr">
@@ -35237,7 +35237,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>2007-08-224</t>
+          <t>2007-08-0224</t>
         </is>
       </c>
       <c r="C831" t="inlineStr">
@@ -35279,7 +35279,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>2007-08-225</t>
+          <t>2007-08-0225</t>
         </is>
       </c>
       <c r="C832" t="inlineStr">
@@ -35321,7 +35321,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>2007-08-225</t>
+          <t>2007-08-0225</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -35363,7 +35363,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>2007-08-225</t>
+          <t>2007-08-0225</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
@@ -35405,7 +35405,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>2007-08-225</t>
+          <t>2007-08-0225</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
@@ -35447,7 +35447,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>2007-08-225</t>
+          <t>2007-08-0225</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
@@ -35489,7 +35489,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>2007-08-225</t>
+          <t>2007-08-0225</t>
         </is>
       </c>
       <c r="C837" t="inlineStr">
@@ -35531,7 +35531,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>2007-08-226</t>
+          <t>2007-08-0226</t>
         </is>
       </c>
       <c r="C838" t="inlineStr">
@@ -35573,7 +35573,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>2007-08-226</t>
+          <t>2007-08-0226</t>
         </is>
       </c>
       <c r="C839" t="inlineStr">
@@ -35615,7 +35615,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>2007-08-226</t>
+          <t>2007-08-0226</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
@@ -35657,7 +35657,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>2007-08-226</t>
+          <t>2007-08-0226</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
@@ -35699,7 +35699,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>2007-08-226</t>
+          <t>2007-08-0226</t>
         </is>
       </c>
       <c r="C842" t="inlineStr">
@@ -35741,7 +35741,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>2007-08-226</t>
+          <t>2007-08-0226</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -35783,7 +35783,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>2007-08-226</t>
+          <t>2007-08-0226</t>
         </is>
       </c>
       <c r="C844" t="inlineStr">
@@ -35825,7 +35825,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>2007-08-226</t>
+          <t>2007-08-0226</t>
         </is>
       </c>
       <c r="C845" t="inlineStr">
@@ -35867,7 +35867,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>2007-08-227</t>
+          <t>2007-08-0227</t>
         </is>
       </c>
       <c r="C846" t="inlineStr">
@@ -35909,7 +35909,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>2007-08-227</t>
+          <t>2007-08-0227</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -35951,7 +35951,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>2007-08-227</t>
+          <t>2007-08-0227</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -35993,7 +35993,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>2007-08-227</t>
+          <t>2007-08-0227</t>
         </is>
       </c>
       <c r="C849" t="inlineStr">
@@ -36035,7 +36035,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>2007-08-227</t>
+          <t>2007-08-0227</t>
         </is>
       </c>
       <c r="C850" t="inlineStr">
@@ -36077,7 +36077,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>2007-08-227</t>
+          <t>2007-08-0227</t>
         </is>
       </c>
       <c r="C851" t="inlineStr">
@@ -36119,7 +36119,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>2007-08-227</t>
+          <t>2007-08-0227</t>
         </is>
       </c>
       <c r="C852" t="inlineStr">
@@ -36161,7 +36161,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>2007-08-227</t>
+          <t>2007-08-0227</t>
         </is>
       </c>
       <c r="C853" t="inlineStr">
@@ -36203,7 +36203,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>2007-08-227</t>
+          <t>2007-08-0227</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -36245,7 +36245,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>2007-08-227</t>
+          <t>2007-08-0227</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -36287,7 +36287,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>2007-08-228</t>
+          <t>2007-08-0228</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -36329,7 +36329,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>2007-08-228</t>
+          <t>2007-08-0228</t>
         </is>
       </c>
       <c r="C857" t="inlineStr">
@@ -36371,7 +36371,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>2007-08-228</t>
+          <t>2007-08-0228</t>
         </is>
       </c>
       <c r="C858" t="inlineStr">
@@ -36413,7 +36413,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>2007-08-229</t>
+          <t>2007-08-0229</t>
         </is>
       </c>
       <c r="C859" t="inlineStr">
@@ -36455,7 +36455,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>2007-08-229</t>
+          <t>2007-08-0229</t>
         </is>
       </c>
       <c r="C860" t="inlineStr">
@@ -36497,7 +36497,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>2007-08-229</t>
+          <t>2007-08-0229</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
@@ -36539,7 +36539,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>2007-08-229</t>
+          <t>2007-08-0229</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
@@ -36581,7 +36581,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>2007-08-229</t>
+          <t>2007-08-0229</t>
         </is>
       </c>
       <c r="C863" t="inlineStr">
@@ -36623,7 +36623,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>2007-08-229</t>
+          <t>2007-08-0229</t>
         </is>
       </c>
       <c r="C864" t="inlineStr">
@@ -36665,7 +36665,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>2007-08-229</t>
+          <t>2007-08-0229</t>
         </is>
       </c>
       <c r="C865" t="inlineStr">
@@ -36707,7 +36707,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>2007-08-229</t>
+          <t>2007-08-0229</t>
         </is>
       </c>
       <c r="C866" t="inlineStr">
@@ -36749,7 +36749,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>2007-08-229</t>
+          <t>2007-08-0229</t>
         </is>
       </c>
       <c r="C867" t="inlineStr">
@@ -36791,7 +36791,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>2007-08-229</t>
+          <t>2007-08-0229</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
@@ -36833,7 +36833,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>2007-08-229</t>
+          <t>2007-08-0229</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
@@ -36875,7 +36875,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>2007-08-229</t>
+          <t>2007-08-0229</t>
         </is>
       </c>
       <c r="C870" t="inlineStr">
@@ -36917,7 +36917,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>2007-08-301</t>
+          <t>2007-08-0301</t>
         </is>
       </c>
       <c r="C871" t="inlineStr">
@@ -36959,7 +36959,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>2007-08-301</t>
+          <t>2007-08-0301</t>
         </is>
       </c>
       <c r="C872" t="inlineStr">
@@ -37001,7 +37001,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>2007-08-301</t>
+          <t>2007-08-0301</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
@@ -37043,7 +37043,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>2007-08-301</t>
+          <t>2007-08-0301</t>
         </is>
       </c>
       <c r="C874" t="inlineStr">
@@ -37085,7 +37085,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>2007-08-301</t>
+          <t>2007-08-0301</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -37127,7 +37127,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>2007-08-302</t>
+          <t>2007-08-0302</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
@@ -37169,7 +37169,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>2007-08-302</t>
+          <t>2007-08-0302</t>
         </is>
       </c>
       <c r="C877" t="inlineStr">
@@ -37211,7 +37211,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>2007-08-302</t>
+          <t>2007-08-0302</t>
         </is>
       </c>
       <c r="C878" t="inlineStr">
@@ -37253,7 +37253,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>2007-08-302</t>
+          <t>2007-08-0302</t>
         </is>
       </c>
       <c r="C879" t="inlineStr">
@@ -37295,7 +37295,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>2007-08-302</t>
+          <t>2007-08-0302</t>
         </is>
       </c>
       <c r="C880" t="inlineStr">
@@ -37337,7 +37337,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>2007-08-302</t>
+          <t>2007-08-0302</t>
         </is>
       </c>
       <c r="C881" t="inlineStr">
@@ -37379,7 +37379,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>2007-08-302</t>
+          <t>2007-08-0302</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
@@ -37421,7 +37421,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>2007-08-302</t>
+          <t>2007-08-0302</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
@@ -37463,7 +37463,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>2007-08-302</t>
+          <t>2007-08-0302</t>
         </is>
       </c>
       <c r="C884" t="inlineStr">
@@ -37505,7 +37505,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>2007-08-302</t>
+          <t>2007-08-0302</t>
         </is>
       </c>
       <c r="C885" t="inlineStr">
@@ -37547,7 +37547,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>2007-08-302</t>
+          <t>2007-08-0302</t>
         </is>
       </c>
       <c r="C886" t="inlineStr">
@@ -37589,7 +37589,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>2007-08-303</t>
+          <t>2007-08-0303</t>
         </is>
       </c>
       <c r="C887" t="inlineStr">
@@ -37631,7 +37631,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>2007-08-303</t>
+          <t>2007-08-0303</t>
         </is>
       </c>
       <c r="C888" t="inlineStr">
@@ -37673,7 +37673,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>2007-08-303</t>
+          <t>2007-08-0303</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
@@ -37715,7 +37715,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>2007-08-304</t>
+          <t>2007-08-0304</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
@@ -37757,7 +37757,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>2007-08-304</t>
+          <t>2007-08-0304</t>
         </is>
       </c>
       <c r="C891" t="inlineStr">
@@ -37799,7 +37799,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>2007-08-304</t>
+          <t>2007-08-0304</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
@@ -37841,7 +37841,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>2007-08-304</t>
+          <t>2007-08-0304</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
@@ -37883,7 +37883,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>2007-08-304</t>
+          <t>2007-08-0304</t>
         </is>
       </c>
       <c r="C894" t="inlineStr">
@@ -37925,7 +37925,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>2007-08-304</t>
+          <t>2007-08-0304</t>
         </is>
       </c>
       <c r="C895" t="inlineStr">
@@ -37967,7 +37967,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>2007-08-304</t>
+          <t>2007-08-0304</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
@@ -38009,7 +38009,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>2007-08-304</t>
+          <t>2007-08-0304</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
@@ -38051,7 +38051,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>2007-08-305</t>
+          <t>2007-08-0305</t>
         </is>
       </c>
       <c r="C898" t="inlineStr">
@@ -38093,7 +38093,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>2007-08-305</t>
+          <t>2007-08-0305</t>
         </is>
       </c>
       <c r="C899" t="inlineStr">
@@ -38135,7 +38135,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>2007-08-305</t>
+          <t>2007-08-0305</t>
         </is>
       </c>
       <c r="C900" t="inlineStr">
@@ -38177,7 +38177,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>2007-08-305</t>
+          <t>2007-08-0305</t>
         </is>
       </c>
       <c r="C901" t="inlineStr">
@@ -38219,7 +38219,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>2007-08-305</t>
+          <t>2007-08-0305</t>
         </is>
       </c>
       <c r="C902" t="inlineStr">
@@ -38261,7 +38261,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>2007-08-305</t>
+          <t>2007-08-0305</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
@@ -38303,7 +38303,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>2007-08-305</t>
+          <t>2007-08-0305</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
@@ -38345,7 +38345,7 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>2007-08-305</t>
+          <t>2007-08-0305</t>
         </is>
       </c>
       <c r="C905" t="inlineStr">
@@ -38387,7 +38387,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>2007-08-305</t>
+          <t>2007-08-0305</t>
         </is>
       </c>
       <c r="C906" t="inlineStr">
@@ -38429,7 +38429,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>2007-08-305</t>
+          <t>2007-08-0305</t>
         </is>
       </c>
       <c r="C907" t="inlineStr">
@@ -38471,7 +38471,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>2007-08-305</t>
+          <t>2007-08-0305</t>
         </is>
       </c>
       <c r="C908" t="inlineStr">
@@ -38513,7 +38513,7 @@
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>2007-08-305</t>
+          <t>2007-08-0305</t>
         </is>
       </c>
       <c r="C909" t="inlineStr">
@@ -38555,7 +38555,7 @@
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>2007-08-306</t>
+          <t>2007-08-0306</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
@@ -38597,7 +38597,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>2007-08-306</t>
+          <t>2007-08-0306</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
@@ -38639,7 +38639,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>2007-08-306</t>
+          <t>2007-08-0306</t>
         </is>
       </c>
       <c r="C912" t="inlineStr">
@@ -38681,7 +38681,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>2007-08-307</t>
+          <t>2007-08-0307</t>
         </is>
       </c>
       <c r="C913" t="inlineStr">
@@ -38723,7 +38723,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>2007-08-307</t>
+          <t>2007-08-0307</t>
         </is>
       </c>
       <c r="C914" t="inlineStr">
@@ -38765,7 +38765,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>2007-08-307</t>
+          <t>2007-08-0307</t>
         </is>
       </c>
       <c r="C915" t="inlineStr">
@@ -38807,7 +38807,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>2007-08-307</t>
+          <t>2007-08-0307</t>
         </is>
       </c>
       <c r="C916" t="inlineStr">
@@ -38849,7 +38849,7 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>2007-08-307</t>
+          <t>2007-08-0307</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
@@ -38891,7 +38891,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>2007-08-307</t>
+          <t>2007-08-0307</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
@@ -38933,7 +38933,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>2007-08-307</t>
+          <t>2007-08-0307</t>
         </is>
       </c>
       <c r="C919" t="inlineStr">
@@ -38975,7 +38975,7 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>2007-08-307</t>
+          <t>2007-08-0307</t>
         </is>
       </c>
       <c r="C920" t="inlineStr">
@@ -39017,7 +39017,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>2007-08-307</t>
+          <t>2007-08-0307</t>
         </is>
       </c>
       <c r="C921" t="inlineStr">
@@ -39059,7 +39059,7 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>2007-08-307</t>
+          <t>2007-08-0307</t>
         </is>
       </c>
       <c r="C922" t="inlineStr">
@@ -39101,7 +39101,7 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>2007-08-307</t>
+          <t>2007-08-0307</t>
         </is>
       </c>
       <c r="C923" t="inlineStr">
@@ -39143,7 +39143,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>2007-08-307</t>
+          <t>2007-08-0307</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
@@ -39185,7 +39185,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>2007-08-308</t>
+          <t>2007-08-0308</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
@@ -39227,7 +39227,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>2007-08-308</t>
+          <t>2007-08-0308</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
@@ -39269,7 +39269,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>2007-08-308</t>
+          <t>2007-08-0308</t>
         </is>
       </c>
       <c r="C927" t="inlineStr">
@@ -39311,7 +39311,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>2007-08-308</t>
+          <t>2007-08-0308</t>
         </is>
       </c>
       <c r="C928" t="inlineStr">
@@ -39353,7 +39353,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>2007-08-308</t>
+          <t>2007-08-0308</t>
         </is>
       </c>
       <c r="C929" t="inlineStr">
@@ -39395,7 +39395,7 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>2007-08-308</t>
+          <t>2007-08-0308</t>
         </is>
       </c>
       <c r="C930" t="inlineStr">
@@ -39437,7 +39437,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>2007-08-308</t>
+          <t>2007-08-0308</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
@@ -39479,7 +39479,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>2007-08-308</t>
+          <t>2007-08-0308</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
@@ -39521,7 +39521,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>2007-08-308</t>
+          <t>2007-08-0308</t>
         </is>
       </c>
       <c r="C933" t="inlineStr">
@@ -39563,7 +39563,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>2007-08-308</t>
+          <t>2007-08-0308</t>
         </is>
       </c>
       <c r="C934" t="inlineStr">
@@ -39605,7 +39605,7 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>2007-08-309</t>
+          <t>2007-08-0309</t>
         </is>
       </c>
       <c r="C935" t="inlineStr">
@@ -39647,7 +39647,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>2007-08-309</t>
+          <t>2007-08-0309</t>
         </is>
       </c>
       <c r="C936" t="inlineStr">
@@ -39689,7 +39689,7 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>2007-08-309</t>
+          <t>2007-08-0309</t>
         </is>
       </c>
       <c r="C937" t="inlineStr">
@@ -39731,7 +39731,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>2007-08-309</t>
+          <t>2007-08-0309</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
@@ -39773,7 +39773,7 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>2007-08-309</t>
+          <t>2007-08-0309</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
@@ -39815,7 +39815,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>2007-08-310</t>
+          <t>2007-08-0310</t>
         </is>
       </c>
       <c r="C940" t="inlineStr">
@@ -39857,7 +39857,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>2007-08-310</t>
+          <t>2007-08-0310</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
@@ -39899,7 +39899,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>2007-08-310</t>
+          <t>2007-08-0310</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
@@ -39941,7 +39941,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>2007-08-310</t>
+          <t>2007-08-0310</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
@@ -39983,7 +39983,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>2007-08-310</t>
+          <t>2007-08-0310</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
@@ -40025,7 +40025,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>2007-08-310</t>
+          <t>2007-08-0310</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
@@ -40067,7 +40067,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>2007-08-310</t>
+          <t>2007-08-0310</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
@@ -40109,7 +40109,7 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>2007-08-311</t>
+          <t>2007-08-0311</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
@@ -40151,7 +40151,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>2007-08-311</t>
+          <t>2007-08-0311</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
@@ -40193,7 +40193,7 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>2007-08-311</t>
+          <t>2007-08-0311</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
@@ -40235,7 +40235,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>2007-08-311</t>
+          <t>2007-08-0311</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
@@ -40277,7 +40277,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>2007-08-311</t>
+          <t>2007-08-0311</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
@@ -40319,7 +40319,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>2007-08-311</t>
+          <t>2007-08-0311</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
@@ -40361,7 +40361,7 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>2007-08-312</t>
+          <t>2007-08-0312</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
@@ -40403,7 +40403,7 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>2007-08-312</t>
+          <t>2007-08-0312</t>
         </is>
       </c>
       <c r="C954" t="inlineStr">
@@ -40445,7 +40445,7 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>2007-08-312</t>
+          <t>2007-08-0312</t>
         </is>
       </c>
       <c r="C955" t="inlineStr">
@@ -40487,7 +40487,7 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>2007-08-312</t>
+          <t>2007-08-0312</t>
         </is>
       </c>
       <c r="C956" t="inlineStr">
@@ -40529,7 +40529,7 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>2007-08-312</t>
+          <t>2007-08-0312</t>
         </is>
       </c>
       <c r="C957" t="inlineStr">
@@ -40571,7 +40571,7 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>2007-08-312</t>
+          <t>2007-08-0312</t>
         </is>
       </c>
       <c r="C958" t="inlineStr">
@@ -40613,7 +40613,7 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>2007-08-312</t>
+          <t>2007-08-0312</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
@@ -40655,7 +40655,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>2007-08-312</t>
+          <t>2007-08-0312</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
@@ -40697,7 +40697,7 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>2007-08-312</t>
+          <t>2007-08-0312</t>
         </is>
       </c>
       <c r="C961" t="inlineStr">
@@ -40739,7 +40739,7 @@
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>2007-08-312</t>
+          <t>2007-08-0312</t>
         </is>
       </c>
       <c r="C962" t="inlineStr">
@@ -40781,7 +40781,7 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>2007-08-312</t>
+          <t>2007-08-0312</t>
         </is>
       </c>
       <c r="C963" t="inlineStr">
@@ -40823,7 +40823,7 @@
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>2007-08-313</t>
+          <t>2007-08-0313</t>
         </is>
       </c>
       <c r="C964" t="inlineStr">
@@ -40865,7 +40865,7 @@
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>2007-08-313</t>
+          <t>2007-08-0313</t>
         </is>
       </c>
       <c r="C965" t="inlineStr">
@@ -40907,7 +40907,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>2007-08-313</t>
+          <t>2007-08-0313</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
@@ -40949,7 +40949,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>2007-08-314</t>
+          <t>2007-08-0314</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
@@ -40991,7 +40991,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>2007-08-314</t>
+          <t>2007-08-0314</t>
         </is>
       </c>
       <c r="C968" t="inlineStr">
@@ -41033,7 +41033,7 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>2007-08-314</t>
+          <t>2007-08-0314</t>
         </is>
       </c>
       <c r="C969" t="inlineStr">
@@ -41075,7 +41075,7 @@
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>2007-08-314</t>
+          <t>2007-08-0314</t>
         </is>
       </c>
       <c r="C970" t="inlineStr">
@@ -41117,7 +41117,7 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>2007-08-314</t>
+          <t>2007-08-0314</t>
         </is>
       </c>
       <c r="C971" t="inlineStr">
@@ -41159,7 +41159,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>2007-08-314</t>
+          <t>2007-08-0314</t>
         </is>
       </c>
       <c r="C972" t="inlineStr">
@@ -41201,7 +41201,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>2007-08-314</t>
+          <t>2007-08-0314</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
@@ -41243,7 +41243,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>2007-08-314</t>
+          <t>2007-08-0314</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
@@ -41285,7 +41285,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>2007-08-314</t>
+          <t>2007-08-0314</t>
         </is>
       </c>
       <c r="C975" t="inlineStr">
@@ -41327,7 +41327,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>2007-08-314</t>
+          <t>2007-08-0314</t>
         </is>
       </c>
       <c r="C976" t="inlineStr">
@@ -41369,7 +41369,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>2007-08-315</t>
+          <t>2007-08-0315</t>
         </is>
       </c>
       <c r="C977" t="inlineStr">
@@ -41411,7 +41411,7 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>2007-08-315</t>
+          <t>2007-08-0315</t>
         </is>
       </c>
       <c r="C978" t="inlineStr">
@@ -41453,7 +41453,7 @@
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>2007-08-315</t>
+          <t>2007-08-0315</t>
         </is>
       </c>
       <c r="C979" t="inlineStr">
@@ -41495,7 +41495,7 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>2007-08-315</t>
+          <t>2007-08-0315</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
@@ -41537,7 +41537,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>2007-08-315</t>
+          <t>2007-08-0315</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
@@ -41579,7 +41579,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>2007-08-315</t>
+          <t>2007-08-0315</t>
         </is>
       </c>
       <c r="C982" t="inlineStr">
@@ -41621,7 +41621,7 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>2007-08-315</t>
+          <t>2007-08-0315</t>
         </is>
       </c>
       <c r="C983" t="inlineStr">
@@ -41663,7 +41663,7 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>2007-08-315</t>
+          <t>2007-08-0315</t>
         </is>
       </c>
       <c r="C984" t="inlineStr">
@@ -41705,7 +41705,7 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>2007-08-316</t>
+          <t>2007-08-0316</t>
         </is>
       </c>
       <c r="C985" t="inlineStr">
@@ -41747,7 +41747,7 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>2007-08-316</t>
+          <t>2007-08-0316</t>
         </is>
       </c>
       <c r="C986" t="inlineStr">
@@ -41789,7 +41789,7 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>2007-08-316</t>
+          <t>2007-08-0316</t>
         </is>
       </c>
       <c r="C987" t="inlineStr">
@@ -41831,7 +41831,7 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>2007-08-316</t>
+          <t>2007-08-0316</t>
         </is>
       </c>
       <c r="C988" t="inlineStr">
@@ -41873,7 +41873,7 @@
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>2007-08-316</t>
+          <t>2007-08-0316</t>
         </is>
       </c>
       <c r="C989" t="inlineStr">
@@ -41917,7 +41917,7 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>2007-08-316</t>
+          <t>2007-08-0316</t>
         </is>
       </c>
       <c r="C990" t="inlineStr">
@@ -41959,7 +41959,7 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>2007-08-316</t>
+          <t>2007-08-0316</t>
         </is>
       </c>
       <c r="C991" t="inlineStr">
@@ -42001,7 +42001,7 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>2007-08-317</t>
+          <t>2007-08-0317</t>
         </is>
       </c>
       <c r="C992" t="inlineStr">
@@ -42043,7 +42043,7 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>2007-08-317</t>
+          <t>2007-08-0317</t>
         </is>
       </c>
       <c r="C993" t="inlineStr">
@@ -42085,7 +42085,7 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>2007-08-317</t>
+          <t>2007-08-0317</t>
         </is>
       </c>
       <c r="C994" t="inlineStr">
@@ -42127,7 +42127,7 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>2007-08-317</t>
+          <t>2007-08-0317</t>
         </is>
       </c>
       <c r="C995" t="inlineStr">
@@ -42169,7 +42169,7 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>2007-08-317</t>
+          <t>2007-08-0317</t>
         </is>
       </c>
       <c r="C996" t="inlineStr">
@@ -42211,7 +42211,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>2007-08-317</t>
+          <t>2007-08-0317</t>
         </is>
       </c>
       <c r="C997" t="inlineStr">
@@ -42253,7 +42253,7 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>2007-08-317</t>
+          <t>2007-08-0317</t>
         </is>
       </c>
       <c r="C998" t="inlineStr">
@@ -42295,7 +42295,7 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>2007-08-317</t>
+          <t>2007-08-0317</t>
         </is>
       </c>
       <c r="C999" t="inlineStr">
@@ -42337,7 +42337,7 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>2007-08-318</t>
+          <t>2007-08-0318</t>
         </is>
       </c>
       <c r="C1000" t="inlineStr">
@@ -42379,7 +42379,7 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>2007-08-318</t>
+          <t>2007-08-0318</t>
         </is>
       </c>
       <c r="C1001" t="inlineStr">
@@ -42421,7 +42421,7 @@
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>2007-08-318</t>
+          <t>2007-08-0318</t>
         </is>
       </c>
       <c r="C1002" t="inlineStr">
@@ -42463,7 +42463,7 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>2007-08-318</t>
+          <t>2007-08-0318</t>
         </is>
       </c>
       <c r="C1003" t="inlineStr">
@@ -42505,7 +42505,7 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>2007-08-318</t>
+          <t>2007-08-0318</t>
         </is>
       </c>
       <c r="C1004" t="inlineStr">
@@ -42547,7 +42547,7 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>2007-08-318</t>
+          <t>2007-08-0318</t>
         </is>
       </c>
       <c r="C1005" t="inlineStr">
@@ -42589,7 +42589,7 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>2007-08-318</t>
+          <t>2007-08-0318</t>
         </is>
       </c>
       <c r="C1006" t="inlineStr">
@@ -42631,7 +42631,7 @@
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>2007-08-319</t>
+          <t>2007-08-0319</t>
         </is>
       </c>
       <c r="C1007" t="inlineStr">
@@ -42673,7 +42673,7 @@
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>2007-08-319</t>
+          <t>2007-08-0319</t>
         </is>
       </c>
       <c r="C1008" t="inlineStr">
@@ -42715,7 +42715,7 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>2007-08-319</t>
+          <t>2007-08-0319</t>
         </is>
       </c>
       <c r="C1009" t="inlineStr">
@@ -42757,7 +42757,7 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>2007-08-319</t>
+          <t>2007-08-0319</t>
         </is>
       </c>
       <c r="C1010" t="inlineStr">
@@ -42799,7 +42799,7 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>2007-08-319</t>
+          <t>2007-08-0319</t>
         </is>
       </c>
       <c r="C1011" t="inlineStr">
@@ -42841,7 +42841,7 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>2007-08-319</t>
+          <t>2007-08-0319</t>
         </is>
       </c>
       <c r="C1012" t="inlineStr">
@@ -42883,7 +42883,7 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>2007-08-319</t>
+          <t>2007-08-0319</t>
         </is>
       </c>
       <c r="C1013" t="inlineStr">
@@ -42925,7 +42925,7 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>2007-08-319</t>
+          <t>2007-08-0319</t>
         </is>
       </c>
       <c r="C1014" t="inlineStr">
@@ -42967,7 +42967,7 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>2007-08-319</t>
+          <t>2007-08-0319</t>
         </is>
       </c>
       <c r="C1015" t="inlineStr">
@@ -43009,7 +43009,7 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>2007-08-319</t>
+          <t>2007-08-0319</t>
         </is>
       </c>
       <c r="C1016" t="inlineStr">
@@ -43051,7 +43051,7 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>2007-08-320</t>
+          <t>2007-08-0320</t>
         </is>
       </c>
       <c r="C1017" t="inlineStr">
@@ -43093,7 +43093,7 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>2007-08-320</t>
+          <t>2007-08-0320</t>
         </is>
       </c>
       <c r="C1018" t="inlineStr">
@@ -43135,7 +43135,7 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>2007-08-320</t>
+          <t>2007-08-0320</t>
         </is>
       </c>
       <c r="C1019" t="inlineStr">
@@ -43177,7 +43177,7 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>2007-08-321</t>
+          <t>2007-08-0321</t>
         </is>
       </c>
       <c r="C1020" t="inlineStr">
@@ -43219,7 +43219,7 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>2007-08-321</t>
+          <t>2007-08-0321</t>
         </is>
       </c>
       <c r="C1021" t="inlineStr">
@@ -43261,7 +43261,7 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>2007-08-321</t>
+          <t>2007-08-0321</t>
         </is>
       </c>
       <c r="C1022" t="inlineStr">
@@ -43303,7 +43303,7 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>2007-08-321</t>
+          <t>2007-08-0321</t>
         </is>
       </c>
       <c r="C1023" t="inlineStr">
@@ -43345,7 +43345,7 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>2007-08-321</t>
+          <t>2007-08-0321</t>
         </is>
       </c>
       <c r="C1024" t="inlineStr">
@@ -43387,7 +43387,7 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>2007-08-321</t>
+          <t>2007-08-0321</t>
         </is>
       </c>
       <c r="C1025" t="inlineStr">
@@ -43429,7 +43429,7 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>2007-08-321</t>
+          <t>2007-08-0321</t>
         </is>
       </c>
       <c r="C1026" t="inlineStr">
@@ -43471,7 +43471,7 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>2007-08-321</t>
+          <t>2007-08-0321</t>
         </is>
       </c>
       <c r="C1027" t="inlineStr">
@@ -43513,7 +43513,7 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>2007-08-321</t>
+          <t>2007-08-0321</t>
         </is>
       </c>
       <c r="C1028" t="inlineStr">
@@ -43555,7 +43555,7 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>2007-08-321</t>
+          <t>2007-08-0321</t>
         </is>
       </c>
       <c r="C1029" t="inlineStr">
@@ -43597,7 +43597,7 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>2007-08-322</t>
+          <t>2007-08-0322</t>
         </is>
       </c>
       <c r="C1030" t="inlineStr">
@@ -43639,7 +43639,7 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>2007-08-322</t>
+          <t>2007-08-0322</t>
         </is>
       </c>
       <c r="C1031" t="inlineStr">
@@ -43681,7 +43681,7 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>2007-08-322</t>
+          <t>2007-08-0322</t>
         </is>
       </c>
       <c r="C1032" t="inlineStr">
@@ -43723,7 +43723,7 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>2007-08-322</t>
+          <t>2007-08-0322</t>
         </is>
       </c>
       <c r="C1033" t="inlineStr">
@@ -43765,7 +43765,7 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>2007-08-322</t>
+          <t>2007-08-0322</t>
         </is>
       </c>
       <c r="C1034" t="inlineStr">
@@ -43807,7 +43807,7 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>2007-08-322</t>
+          <t>2007-08-0322</t>
         </is>
       </c>
       <c r="C1035" t="inlineStr">
@@ -43849,7 +43849,7 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>2007-08-322</t>
+          <t>2007-08-0322</t>
         </is>
       </c>
       <c r="C1036" t="inlineStr">
@@ -43891,7 +43891,7 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>2007-08-322</t>
+          <t>2007-08-0322</t>
         </is>
       </c>
       <c r="C1037" t="inlineStr">
@@ -43933,7 +43933,7 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>2007-08-322</t>
+          <t>2007-08-0322</t>
         </is>
       </c>
       <c r="C1038" t="inlineStr">
@@ -43975,7 +43975,7 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>2007-08-322</t>
+          <t>2007-08-0322</t>
         </is>
       </c>
       <c r="C1039" t="inlineStr">
@@ -44017,7 +44017,7 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>2007-08-322</t>
+          <t>2007-08-0322</t>
         </is>
       </c>
       <c r="C1040" t="inlineStr">
@@ -44059,7 +44059,7 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>2007-08-323</t>
+          <t>2007-08-0323</t>
         </is>
       </c>
       <c r="C1041" t="inlineStr">
@@ -44101,7 +44101,7 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>2007-08-323</t>
+          <t>2007-08-0323</t>
         </is>
       </c>
       <c r="C1042" t="inlineStr">
@@ -44143,7 +44143,7 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>2007-08-323</t>
+          <t>2007-08-0323</t>
         </is>
       </c>
       <c r="C1043" t="inlineStr">
@@ -44185,7 +44185,7 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>2007-08-323</t>
+          <t>2007-08-0323</t>
         </is>
       </c>
       <c r="C1044" t="inlineStr">
@@ -44227,7 +44227,7 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>2007-08-324</t>
+          <t>2007-08-0324</t>
         </is>
       </c>
       <c r="C1045" t="inlineStr">
@@ -44269,7 +44269,7 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>2007-08-324</t>
+          <t>2007-08-0324</t>
         </is>
       </c>
       <c r="C1046" t="inlineStr">
@@ -44311,7 +44311,7 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>2007-08-324</t>
+          <t>2007-08-0324</t>
         </is>
       </c>
       <c r="C1047" t="inlineStr">
@@ -44353,7 +44353,7 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>2007-08-324</t>
+          <t>2007-08-0324</t>
         </is>
       </c>
       <c r="C1048" t="inlineStr">
@@ -44395,7 +44395,7 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>2007-08-324</t>
+          <t>2007-08-0324</t>
         </is>
       </c>
       <c r="C1049" t="inlineStr">
@@ -44437,7 +44437,7 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>2007-08-324</t>
+          <t>2007-08-0324</t>
         </is>
       </c>
       <c r="C1050" t="inlineStr">
@@ -44479,7 +44479,7 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>2007-08-324</t>
+          <t>2007-08-0324</t>
         </is>
       </c>
       <c r="C1051" t="inlineStr">
@@ -44521,7 +44521,7 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>2007-08-324</t>
+          <t>2007-08-0324</t>
         </is>
       </c>
       <c r="C1052" t="inlineStr">
@@ -44563,7 +44563,7 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>2007-08-325</t>
+          <t>2007-08-0325</t>
         </is>
       </c>
       <c r="C1053" t="inlineStr">
@@ -44605,7 +44605,7 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>2007-08-325</t>
+          <t>2007-08-0325</t>
         </is>
       </c>
       <c r="C1054" t="inlineStr">
@@ -44647,7 +44647,7 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>2007-08-325</t>
+          <t>2007-08-0325</t>
         </is>
       </c>
       <c r="C1055" t="inlineStr">
@@ -44689,7 +44689,7 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>2007-08-325</t>
+          <t>2007-08-0325</t>
         </is>
       </c>
       <c r="C1056" t="inlineStr">
@@ -44731,7 +44731,7 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>2007-08-325</t>
+          <t>2007-08-0325</t>
         </is>
       </c>
       <c r="C1057" t="inlineStr">
@@ -44773,7 +44773,7 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>2007-08-325</t>
+          <t>2007-08-0325</t>
         </is>
       </c>
       <c r="C1058" t="inlineStr">
@@ -44815,7 +44815,7 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>2007-08-326</t>
+          <t>2007-08-0326</t>
         </is>
       </c>
       <c r="C1059" t="inlineStr">
@@ -44857,7 +44857,7 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>2007-08-326</t>
+          <t>2007-08-0326</t>
         </is>
       </c>
       <c r="C1060" t="inlineStr">
@@ -44899,7 +44899,7 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>2007-08-326</t>
+          <t>2007-08-0326</t>
         </is>
       </c>
       <c r="C1061" t="inlineStr">
@@ -44941,7 +44941,7 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>2007-08-326</t>
+          <t>2007-08-0326</t>
         </is>
       </c>
       <c r="C1062" t="inlineStr">
@@ -44983,7 +44983,7 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>2007-08-326</t>
+          <t>2007-08-0326</t>
         </is>
       </c>
       <c r="C1063" t="inlineStr">
@@ -45025,7 +45025,7 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>2007-08-326</t>
+          <t>2007-08-0326</t>
         </is>
       </c>
       <c r="C1064" t="inlineStr">
@@ -45067,7 +45067,7 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>2007-08-326</t>
+          <t>2007-08-0326</t>
         </is>
       </c>
       <c r="C1065" t="inlineStr">
@@ -45109,7 +45109,7 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>2007-08-326</t>
+          <t>2007-08-0326</t>
         </is>
       </c>
       <c r="C1066" t="inlineStr">
@@ -45151,7 +45151,7 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>2007-08-326</t>
+          <t>2007-08-0326</t>
         </is>
       </c>
       <c r="C1067" t="inlineStr">
@@ -45193,7 +45193,7 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>2007-08-326</t>
+          <t>2007-08-0326</t>
         </is>
       </c>
       <c r="C1068" t="inlineStr">
@@ -45235,7 +45235,7 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>2007-08-326</t>
+          <t>2007-08-0326</t>
         </is>
       </c>
       <c r="C1069" t="inlineStr">
@@ -45277,7 +45277,7 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>2007-08-326</t>
+          <t>2007-08-0326</t>
         </is>
       </c>
       <c r="C1070" t="inlineStr">
@@ -45319,7 +45319,7 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>2007-08-327</t>
+          <t>2007-08-0327</t>
         </is>
       </c>
       <c r="C1071" t="inlineStr">
@@ -45361,7 +45361,7 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>2007-08-327</t>
+          <t>2007-08-0327</t>
         </is>
       </c>
       <c r="C1072" t="inlineStr">
@@ -45403,7 +45403,7 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>2007-08-327</t>
+          <t>2007-08-0327</t>
         </is>
       </c>
       <c r="C1073" t="inlineStr">
@@ -45445,7 +45445,7 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>2007-08-328</t>
+          <t>2007-08-0328</t>
         </is>
       </c>
       <c r="C1074" t="inlineStr">
@@ -45487,7 +45487,7 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>2007-08-328</t>
+          <t>2007-08-0328</t>
         </is>
       </c>
       <c r="C1075" t="inlineStr">
@@ -45529,7 +45529,7 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>2007-08-328</t>
+          <t>2007-08-0328</t>
         </is>
       </c>
       <c r="C1076" t="inlineStr">
@@ -45571,7 +45571,7 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>2007-08-328</t>
+          <t>2007-08-0328</t>
         </is>
       </c>
       <c r="C1077" t="inlineStr">
@@ -45613,7 +45613,7 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>2007-08-328</t>
+          <t>2007-08-0328</t>
         </is>
       </c>
       <c r="C1078" t="inlineStr">
@@ -45655,7 +45655,7 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>2007-08-328</t>
+          <t>2007-08-0328</t>
         </is>
       </c>
       <c r="C1079" t="inlineStr">
@@ -45697,7 +45697,7 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>2007-08-328</t>
+          <t>2007-08-0328</t>
         </is>
       </c>
       <c r="C1080" t="inlineStr">
@@ -45739,7 +45739,7 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>2007-08-328</t>
+          <t>2007-08-0328</t>
         </is>
       </c>
       <c r="C1081" t="inlineStr">
@@ -45781,7 +45781,7 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>2007-08-328</t>
+          <t>2007-08-0328</t>
         </is>
       </c>
       <c r="C1082" t="inlineStr">
@@ -45823,7 +45823,7 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>2007-08-328</t>
+          <t>2007-08-0328</t>
         </is>
       </c>
       <c r="C1083" t="inlineStr">
@@ -45865,7 +45865,7 @@
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>2007-08-328</t>
+          <t>2007-08-0328</t>
         </is>
       </c>
       <c r="C1084" t="inlineStr">
@@ -45907,7 +45907,7 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>2007-08-329</t>
+          <t>2007-08-0329</t>
         </is>
       </c>
       <c r="C1085" t="inlineStr">
@@ -45949,7 +45949,7 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>2007-08-329</t>
+          <t>2007-08-0329</t>
         </is>
       </c>
       <c r="C1086" t="inlineStr">
@@ -45991,7 +45991,7 @@
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>2007-08-329</t>
+          <t>2007-08-0329</t>
         </is>
       </c>
       <c r="C1087" t="inlineStr">
@@ -46033,7 +46033,7 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>2007-08-329</t>
+          <t>2007-08-0329</t>
         </is>
       </c>
       <c r="C1088" t="inlineStr">
@@ -46075,7 +46075,7 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>2007-08-329</t>
+          <t>2007-08-0329</t>
         </is>
       </c>
       <c r="C1089" t="inlineStr">
@@ -46117,7 +46117,7 @@
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>2007-08-329</t>
+          <t>2007-08-0329</t>
         </is>
       </c>
       <c r="C1090" t="inlineStr">
@@ -46159,7 +46159,7 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>2007-08-330</t>
+          <t>2007-08-0330</t>
         </is>
       </c>
       <c r="C1091" t="inlineStr">
@@ -46201,7 +46201,7 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>2007-08-330</t>
+          <t>2007-08-0330</t>
         </is>
       </c>
       <c r="C1092" t="inlineStr">
@@ -46243,7 +46243,7 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>2007-08-330</t>
+          <t>2007-08-0330</t>
         </is>
       </c>
       <c r="C1093" t="inlineStr">
@@ -46285,7 +46285,7 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>2007-08-330</t>
+          <t>2007-08-0330</t>
         </is>
       </c>
       <c r="C1094" t="inlineStr">
@@ -46327,7 +46327,7 @@
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>2007-08-330</t>
+          <t>2007-08-0330</t>
         </is>
       </c>
       <c r="C1095" t="inlineStr">
@@ -46369,7 +46369,7 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>2007-08-330</t>
+          <t>2007-08-0330</t>
         </is>
       </c>
       <c r="C1096" t="inlineStr">
@@ -46411,7 +46411,7 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>2007-08-330</t>
+          <t>2007-08-0330</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr">
@@ -46453,7 +46453,7 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>2007-08-330</t>
+          <t>2007-08-0330</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr">
@@ -46495,7 +46495,7 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>2007-08-330</t>
+          <t>2007-08-0330</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr">
@@ -46537,7 +46537,7 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>2007-08-331</t>
+          <t>2007-08-0331</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr">
@@ -46579,7 +46579,7 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>2007-08-331</t>
+          <t>2007-08-0331</t>
         </is>
       </c>
       <c r="C1101" t="inlineStr">
@@ -46621,7 +46621,7 @@
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>2007-08-331</t>
+          <t>2007-08-0331</t>
         </is>
       </c>
       <c r="C1102" t="inlineStr">
@@ -46663,7 +46663,7 @@
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>2007-08-331</t>
+          <t>2007-08-0331</t>
         </is>
       </c>
       <c r="C1103" t="inlineStr">
@@ -46705,7 +46705,7 @@
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>2007-08-331</t>
+          <t>2007-08-0331</t>
         </is>
       </c>
       <c r="C1104" t="inlineStr">
@@ -46747,7 +46747,7 @@
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>2007-08-331</t>
+          <t>2007-08-0331</t>
         </is>
       </c>
       <c r="C1105" t="inlineStr">
@@ -46789,7 +46789,7 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>2007-08-401</t>
+          <t>2007-08-0401</t>
         </is>
       </c>
       <c r="C1106" t="inlineStr">
@@ -46831,7 +46831,7 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>2007-08-401</t>
+          <t>2007-08-0401</t>
         </is>
       </c>
       <c r="C1107" t="inlineStr">
@@ -46873,7 +46873,7 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>2007-08-401</t>
+          <t>2007-08-0401</t>
         </is>
       </c>
       <c r="C1108" t="inlineStr">
@@ -46915,7 +46915,7 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>2007-08-401</t>
+          <t>2007-08-0401</t>
         </is>
       </c>
       <c r="C1109" t="inlineStr">
@@ -46957,7 +46957,7 @@
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>2007-08-401</t>
+          <t>2007-08-0401</t>
         </is>
       </c>
       <c r="C1110" t="inlineStr">
@@ -46999,7 +46999,7 @@
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>2007-08-401</t>
+          <t>2007-08-0401</t>
         </is>
       </c>
       <c r="C1111" t="inlineStr">
@@ -47041,7 +47041,7 @@
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>2007-08-401</t>
+          <t>2007-08-0401</t>
         </is>
       </c>
       <c r="C1112" t="inlineStr">
@@ -47083,7 +47083,7 @@
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>2007-08-401</t>
+          <t>2007-08-0401</t>
         </is>
       </c>
       <c r="C1113" t="inlineStr">
@@ -47125,7 +47125,7 @@
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>2007-08-402</t>
+          <t>2007-08-0402</t>
         </is>
       </c>
       <c r="C1114" t="inlineStr">
@@ -47167,7 +47167,7 @@
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>2007-08-402</t>
+          <t>2007-08-0402</t>
         </is>
       </c>
       <c r="C1115" t="inlineStr">
@@ -47209,7 +47209,7 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>2007-08-402</t>
+          <t>2007-08-0402</t>
         </is>
       </c>
       <c r="C1116" t="inlineStr">
@@ -47251,7 +47251,7 @@
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>2007-08-402</t>
+          <t>2007-08-0402</t>
         </is>
       </c>
       <c r="C1117" t="inlineStr">
@@ -47293,7 +47293,7 @@
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>2007-08-402</t>
+          <t>2007-08-0402</t>
         </is>
       </c>
       <c r="C1118" t="inlineStr">
@@ -47335,7 +47335,7 @@
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>2007-08-402</t>
+          <t>2007-08-0402</t>
         </is>
       </c>
       <c r="C1119" t="inlineStr">
@@ -47377,7 +47377,7 @@
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>2007-08-402</t>
+          <t>2007-08-0402</t>
         </is>
       </c>
       <c r="C1120" t="inlineStr">
@@ -47419,7 +47419,7 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>2007-08-402</t>
+          <t>2007-08-0402</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr">
@@ -47461,7 +47461,7 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>2007-08-402</t>
+          <t>2007-08-0402</t>
         </is>
       </c>
       <c r="C1122" t="inlineStr">
@@ -47503,7 +47503,7 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>2007-08-402</t>
+          <t>2007-08-0402</t>
         </is>
       </c>
       <c r="C1123" t="inlineStr">
@@ -47545,7 +47545,7 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>2007-08-403</t>
+          <t>2007-08-0403</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr">
@@ -47587,7 +47587,7 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>2007-08-403</t>
+          <t>2007-08-0403</t>
         </is>
       </c>
       <c r="C1125" t="inlineStr">
@@ -47629,7 +47629,7 @@
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>2007-08-403</t>
+          <t>2007-08-0403</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
@@ -47671,7 +47671,7 @@
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>2007-08-404</t>
+          <t>2007-08-0404</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
@@ -47713,7 +47713,7 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>2007-08-404</t>
+          <t>2007-08-0404</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
@@ -47755,7 +47755,7 @@
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>2007-08-404</t>
+          <t>2007-08-0404</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
@@ -47797,7 +47797,7 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>2007-08-404</t>
+          <t>2007-08-0404</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
@@ -47839,7 +47839,7 @@
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>2007-08-404</t>
+          <t>2007-08-0404</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
@@ -47881,7 +47881,7 @@
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>2007-08-404</t>
+          <t>2007-08-0404</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
@@ -47923,7 +47923,7 @@
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>2007-08-404</t>
+          <t>2007-08-0404</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
@@ -47965,7 +47965,7 @@
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>2007-08-404</t>
+          <t>2007-08-0404</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
@@ -48007,7 +48007,7 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>2007-08-404</t>
+          <t>2007-08-0404</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
@@ -48049,7 +48049,7 @@
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>2007-08-404</t>
+          <t>2007-08-0404</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
@@ -48091,7 +48091,7 @@
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>2007-08-404</t>
+          <t>2007-08-0404</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
@@ -48133,7 +48133,7 @@
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>2007-08-405</t>
+          <t>2007-08-0405</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
@@ -48175,7 +48175,7 @@
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>2007-08-405</t>
+          <t>2007-08-0405</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
@@ -48217,7 +48217,7 @@
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>2007-08-405</t>
+          <t>2007-08-0405</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
@@ -48259,7 +48259,7 @@
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>2007-08-405</t>
+          <t>2007-08-0405</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
@@ -48301,7 +48301,7 @@
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>2007-08-405</t>
+          <t>2007-08-0405</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
@@ -48343,7 +48343,7 @@
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>2007-08-405</t>
+          <t>2007-08-0405</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
@@ -48385,7 +48385,7 @@
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>2007-08-406</t>
+          <t>2007-08-0406</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
@@ -48427,7 +48427,7 @@
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>2007-08-406</t>
+          <t>2007-08-0406</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
@@ -48469,7 +48469,7 @@
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>2007-08-406</t>
+          <t>2007-08-0406</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
@@ -48511,7 +48511,7 @@
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>2007-08-406</t>
+          <t>2007-08-0406</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
@@ -48553,7 +48553,7 @@
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>2007-08-406</t>
+          <t>2007-08-0406</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
@@ -48595,7 +48595,7 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>2007-08-406</t>
+          <t>2007-08-0406</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
@@ -48637,7 +48637,7 @@
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>2007-08-406</t>
+          <t>2007-08-0406</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
@@ -48679,7 +48679,7 @@
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>2007-08-406</t>
+          <t>2007-08-0406</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
@@ -48721,7 +48721,7 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>2007-08-406</t>
+          <t>2007-08-0406</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
@@ -48763,7 +48763,7 @@
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>2007-08-406</t>
+          <t>2007-08-0406</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
@@ -48805,7 +48805,7 @@
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>2007-08-408</t>
+          <t>2007-08-0408</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
@@ -48847,7 +48847,7 @@
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>2007-08-408</t>
+          <t>2007-08-0408</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
@@ -48889,7 +48889,7 @@
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>2007-08-408</t>
+          <t>2007-08-0408</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
@@ -48931,7 +48931,7 @@
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>2007-08-408</t>
+          <t>2007-08-0408</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
@@ -48973,7 +48973,7 @@
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>2007-08-408</t>
+          <t>2007-08-0408</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
@@ -49015,7 +49015,7 @@
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>2007-08-408</t>
+          <t>2007-08-0408</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
@@ -49057,7 +49057,7 @@
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>2007-08-408</t>
+          <t>2007-08-0408</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
@@ -49099,7 +49099,7 @@
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>2007-08-408</t>
+          <t>2007-08-0408</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
@@ -49141,7 +49141,7 @@
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>2007-08-408</t>
+          <t>2007-08-0408</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
@@ -49183,7 +49183,7 @@
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>2007-08-408</t>
+          <t>2007-08-0408</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
@@ -49225,7 +49225,7 @@
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>2007-08-408</t>
+          <t>2007-08-0408</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
@@ -49267,7 +49267,7 @@
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>2007-08-409</t>
+          <t>2007-08-0409</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
@@ -49309,7 +49309,7 @@
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>2007-08-409</t>
+          <t>2007-08-0409</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
@@ -49351,7 +49351,7 @@
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>2007-08-409</t>
+          <t>2007-08-0409</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
@@ -49393,7 +49393,7 @@
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>2007-08-409</t>
+          <t>2007-08-0409</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
@@ -49435,7 +49435,7 @@
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>2007-08-409</t>
+          <t>2007-08-0409</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
@@ -49477,7 +49477,7 @@
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>2007-08-409</t>
+          <t>2007-08-0409</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
@@ -49519,7 +49519,7 @@
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>2007-08-409</t>
+          <t>2007-08-0409</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
@@ -49561,7 +49561,7 @@
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>2007-08-409</t>
+          <t>2007-08-0409</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
@@ -49603,7 +49603,7 @@
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>2007-08-409</t>
+          <t>2007-08-0409</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
@@ -49645,7 +49645,7 @@
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>2007-08-410</t>
+          <t>2007-08-0410</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
@@ -49687,7 +49687,7 @@
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>2007-08-410</t>
+          <t>2007-08-0410</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
@@ -49729,7 +49729,7 @@
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>2007-08-410</t>
+          <t>2007-08-0410</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
@@ -49771,7 +49771,7 @@
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>2007-08-411</t>
+          <t>2007-08-0411</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
@@ -49813,7 +49813,7 @@
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>2007-08-411</t>
+          <t>2007-08-0411</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
@@ -49855,7 +49855,7 @@
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>2007-08-411</t>
+          <t>2007-08-0411</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
@@ -49897,7 +49897,7 @@
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>2007-08-411</t>
+          <t>2007-08-0411</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
@@ -49939,7 +49939,7 @@
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>2007-08-411</t>
+          <t>2007-08-0411</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
@@ -49981,7 +49981,7 @@
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>2007-08-411</t>
+          <t>2007-08-0411</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
@@ -50023,7 +50023,7 @@
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>2007-08-411</t>
+          <t>2007-08-0411</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
@@ -50065,7 +50065,7 @@
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>2007-08-411</t>
+          <t>2007-08-0411</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
@@ -50107,7 +50107,7 @@
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>2007-08-411</t>
+          <t>2007-08-0411</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
@@ -50149,7 +50149,7 @@
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>2007-08-411</t>
+          <t>2007-08-0411</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
@@ -50191,7 +50191,7 @@
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>2007-08-411</t>
+          <t>2007-08-0411</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
@@ -50233,7 +50233,7 @@
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>2007-08-411</t>
+          <t>2007-08-0411</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
@@ -50275,7 +50275,7 @@
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>2007-08-412</t>
+          <t>2007-08-0412</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
@@ -50317,7 +50317,7 @@
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>2007-08-412</t>
+          <t>2007-08-0412</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
@@ -50359,7 +50359,7 @@
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>2007-08-412</t>
+          <t>2007-08-0412</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
@@ -50401,7 +50401,7 @@
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>2007-08-412</t>
+          <t>2007-08-0412</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
@@ -50443,7 +50443,7 @@
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>2007-08-412</t>
+          <t>2007-08-0412</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
@@ -50485,7 +50485,7 @@
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>2007-08-412</t>
+          <t>2007-08-0412</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
@@ -50527,7 +50527,7 @@
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>2007-08-412</t>
+          <t>2007-08-0412</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
@@ -50569,7 +50569,7 @@
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>2007-08-412</t>
+          <t>2007-08-0412</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
@@ -50611,7 +50611,7 @@
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>2007-08-412</t>
+          <t>2007-08-0412</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
@@ -50653,7 +50653,7 @@
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>2007-08-413</t>
+          <t>2007-08-0413</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
@@ -50695,7 +50695,7 @@
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>2007-08-413</t>
+          <t>2007-08-0413</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr">
@@ -50737,7 +50737,7 @@
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>2007-08-413</t>
+          <t>2007-08-0413</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr">
@@ -50779,7 +50779,7 @@
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>2007-08-413</t>
+          <t>2007-08-0413</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr">
@@ -50821,7 +50821,7 @@
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>2007-08-413</t>
+          <t>2007-08-0413</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
@@ -50863,7 +50863,7 @@
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>2007-08-413</t>
+          <t>2007-08-0413</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
@@ -50905,7 +50905,7 @@
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>2007-08-414</t>
+          <t>2007-08-0414</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
@@ -50947,7 +50947,7 @@
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>2007-08-414</t>
+          <t>2007-08-0414</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
@@ -50989,7 +50989,7 @@
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>2007-08-414</t>
+          <t>2007-08-0414</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr">
@@ -51031,7 +51031,7 @@
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>2007-08-414</t>
+          <t>2007-08-0414</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr">
@@ -51073,7 +51073,7 @@
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>2007-08-414</t>
+          <t>2007-08-0414</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr">
@@ -51115,7 +51115,7 @@
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>2007-08-414</t>
+          <t>2007-08-0414</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr">
@@ -51157,7 +51157,7 @@
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>2007-08-414</t>
+          <t>2007-08-0414</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr">
@@ -51199,7 +51199,7 @@
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>2007-08-414</t>
+          <t>2007-08-0414</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr">
@@ -51241,7 +51241,7 @@
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>2007-08-415</t>
+          <t>2007-08-0415</t>
         </is>
       </c>
       <c r="C1212" t="inlineStr">
@@ -51283,7 +51283,7 @@
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>2007-08-415</t>
+          <t>2007-08-0415</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
@@ -51325,7 +51325,7 @@
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>2007-08-415</t>
+          <t>2007-08-0415</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
@@ -51367,7 +51367,7 @@
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>2007-08-415</t>
+          <t>2007-08-0415</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr">
@@ -51409,7 +51409,7 @@
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>2007-08-415</t>
+          <t>2007-08-0415</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
@@ -51451,7 +51451,7 @@
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>2007-08-415</t>
+          <t>2007-08-0415</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
@@ -51493,7 +51493,7 @@
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>2007-08-416</t>
+          <t>2007-08-0416</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
@@ -51535,7 +51535,7 @@
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>2007-08-416</t>
+          <t>2007-08-0416</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
@@ -51577,7 +51577,7 @@
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>2007-08-416</t>
+          <t>2007-08-0416</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
@@ -51619,7 +51619,7 @@
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>2007-08-416</t>
+          <t>2007-08-0416</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr">
@@ -51661,7 +51661,7 @@
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>2007-08-416</t>
+          <t>2007-08-0416</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr">
@@ -51703,7 +51703,7 @@
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>2007-08-416</t>
+          <t>2007-08-0416</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr">
@@ -51745,7 +51745,7 @@
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>2007-08-416</t>
+          <t>2007-08-0416</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr">
@@ -51787,7 +51787,7 @@
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>2007-08-416</t>
+          <t>2007-08-0416</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr">
@@ -51829,7 +51829,7 @@
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>2007-08-416</t>
+          <t>2007-08-0416</t>
         </is>
       </c>
       <c r="C1226" t="inlineStr">
@@ -51871,7 +51871,7 @@
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>2007-08-416</t>
+          <t>2007-08-0416</t>
         </is>
       </c>
       <c r="C1227" t="inlineStr">
@@ -51913,7 +51913,7 @@
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>2007-08-416</t>
+          <t>2007-08-0416</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr">
@@ -51955,7 +51955,7 @@
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>2007-08-416</t>
+          <t>2007-08-0416</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr">
@@ -51997,7 +51997,7 @@
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>2007-08-416</t>
+          <t>2007-08-0416</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr">
@@ -52039,7 +52039,7 @@
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>2007-08-416</t>
+          <t>2007-08-0416</t>
         </is>
       </c>
       <c r="C1231" t="inlineStr">
@@ -52081,7 +52081,7 @@
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>2007-08-419</t>
+          <t>2007-08-0419</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr">
@@ -52123,7 +52123,7 @@
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>2007-08-419</t>
+          <t>2007-08-0419</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr">
@@ -52165,7 +52165,7 @@
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>2007-08-419</t>
+          <t>2007-08-0419</t>
         </is>
       </c>
       <c r="C1234" t="inlineStr">
@@ -52207,7 +52207,7 @@
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>2007-08-419</t>
+          <t>2007-08-0419</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr">
@@ -52249,7 +52249,7 @@
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>2007-08-420</t>
+          <t>2007-08-0420</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr">
@@ -52291,7 +52291,7 @@
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>2007-08-420</t>
+          <t>2007-08-0420</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr">
@@ -52333,7 +52333,7 @@
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>2007-08-420</t>
+          <t>2007-08-0420</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr">
@@ -52375,7 +52375,7 @@
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>2007-08-420</t>
+          <t>2007-08-0420</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr">
@@ -52417,7 +52417,7 @@
       </c>
       <c r="B1240" t="inlineStr">
         <is>
-          <t>2007-08-421</t>
+          <t>2007-08-0421</t>
         </is>
       </c>
       <c r="C1240" t="inlineStr">
@@ -52459,7 +52459,7 @@
       </c>
       <c r="B1241" t="inlineStr">
         <is>
-          <t>2007-08-421</t>
+          <t>2007-08-0421</t>
         </is>
       </c>
       <c r="C1241" t="inlineStr">
@@ -52501,7 +52501,7 @@
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>2007-08-422</t>
+          <t>2007-08-0422</t>
         </is>
       </c>
       <c r="C1242" t="inlineStr">
@@ -52543,7 +52543,7 @@
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>2007-08-422</t>
+          <t>2007-08-0422</t>
         </is>
       </c>
       <c r="C1243" t="inlineStr">
@@ -52585,7 +52585,7 @@
       </c>
       <c r="B1244" t="inlineStr">
         <is>
-          <t>2007-08-422</t>
+          <t>2007-08-0422</t>
         </is>
       </c>
       <c r="C1244" t="inlineStr">
@@ -52627,7 +52627,7 @@
       </c>
       <c r="B1245" t="inlineStr">
         <is>
-          <t>2007-08-423</t>
+          <t>2007-08-0423</t>
         </is>
       </c>
       <c r="C1245" t="inlineStr">
@@ -52669,7 +52669,7 @@
       </c>
       <c r="B1246" t="inlineStr">
         <is>
-          <t>2007-08-423</t>
+          <t>2007-08-0423</t>
         </is>
       </c>
       <c r="C1246" t="inlineStr">
@@ -52711,7 +52711,7 @@
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>2007-08-423</t>
+          <t>2007-08-0423</t>
         </is>
       </c>
       <c r="C1247" t="inlineStr">
@@ -52753,7 +52753,7 @@
       </c>
       <c r="B1248" t="inlineStr">
         <is>
-          <t>2007-08-424</t>
+          <t>2007-08-0424</t>
         </is>
       </c>
       <c r="C1248" t="inlineStr">
@@ -52795,7 +52795,7 @@
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>2007-08-424</t>
+          <t>2007-08-0424</t>
         </is>
       </c>
       <c r="C1249" t="inlineStr">
@@ -52837,7 +52837,7 @@
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>2007-08-424</t>
+          <t>2007-08-0424</t>
         </is>
       </c>
       <c r="C1250" t="inlineStr">
@@ -52879,7 +52879,7 @@
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>2007-08-425</t>
+          <t>2007-08-0425</t>
         </is>
       </c>
       <c r="C1251" t="inlineStr">
@@ -52921,7 +52921,7 @@
       </c>
       <c r="B1252" t="inlineStr">
         <is>
-          <t>2007-08-425</t>
+          <t>2007-08-0425</t>
         </is>
       </c>
       <c r="C1252" t="inlineStr">
@@ -52963,7 +52963,7 @@
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>2007-08-425</t>
+          <t>2007-08-0425</t>
         </is>
       </c>
       <c r="C1253" t="inlineStr">
@@ -53005,7 +53005,7 @@
       </c>
       <c r="B1254" t="inlineStr">
         <is>
-          <t>2007-08-426</t>
+          <t>2007-08-0426</t>
         </is>
       </c>
       <c r="C1254" t="inlineStr">
@@ -53047,7 +53047,7 @@
       </c>
       <c r="B1255" t="inlineStr">
         <is>
-          <t>2007-08-426</t>
+          <t>2007-08-0426</t>
         </is>
       </c>
       <c r="C1255" t="inlineStr">
@@ -53089,7 +53089,7 @@
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>2007-08-426</t>
+          <t>2007-08-0426</t>
         </is>
       </c>
       <c r="C1256" t="inlineStr">
@@ -53131,7 +53131,7 @@
       </c>
       <c r="B1257" t="inlineStr">
         <is>
-          <t>2007-08-426</t>
+          <t>2007-08-0426</t>
         </is>
       </c>
       <c r="C1257" t="inlineStr">
@@ -53173,7 +53173,7 @@
       </c>
       <c r="B1258" t="inlineStr">
         <is>
-          <t>2007-08-427</t>
+          <t>2007-08-0427</t>
         </is>
       </c>
       <c r="C1258" t="inlineStr">
@@ -53215,7 +53215,7 @@
       </c>
       <c r="B1259" t="inlineStr">
         <is>
-          <t>2007-08-427</t>
+          <t>2007-08-0427</t>
         </is>
       </c>
       <c r="C1259" t="inlineStr">
@@ -53257,7 +53257,7 @@
       </c>
       <c r="B1260" t="inlineStr">
         <is>
-          <t>2007-08-427</t>
+          <t>2007-08-0427</t>
         </is>
       </c>
       <c r="C1260" t="inlineStr">
@@ -53299,7 +53299,7 @@
       </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>2007-08-427</t>
+          <t>2007-08-0427</t>
         </is>
       </c>
       <c r="C1261" t="inlineStr">
@@ -53341,7 +53341,7 @@
       </c>
       <c r="B1262" t="inlineStr">
         <is>
-          <t>2007-08-428</t>
+          <t>2007-08-0428</t>
         </is>
       </c>
       <c r="C1262" t="inlineStr">
@@ -53383,7 +53383,7 @@
       </c>
       <c r="B1263" t="inlineStr">
         <is>
-          <t>2007-08-428</t>
+          <t>2007-08-0428</t>
         </is>
       </c>
       <c r="C1263" t="inlineStr">
@@ -53425,7 +53425,7 @@
       </c>
       <c r="B1264" t="inlineStr">
         <is>
-          <t>2007-08-428</t>
+          <t>2007-08-0428</t>
         </is>
       </c>
       <c r="C1264" t="inlineStr">
@@ -53467,7 +53467,7 @@
       </c>
       <c r="B1265" t="inlineStr">
         <is>
-          <t>2007-08-429</t>
+          <t>2007-08-0429</t>
         </is>
       </c>
       <c r="C1265" t="inlineStr">
@@ -53509,7 +53509,7 @@
       </c>
       <c r="B1266" t="inlineStr">
         <is>
-          <t>2007-08-429</t>
+          <t>2007-08-0429</t>
         </is>
       </c>
       <c r="C1266" t="inlineStr">
@@ -53551,7 +53551,7 @@
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t>2007-08-429</t>
+          <t>2007-08-0429</t>
         </is>
       </c>
       <c r="C1267" t="inlineStr">
@@ -53593,7 +53593,7 @@
       </c>
       <c r="B1268" t="inlineStr">
         <is>
-          <t>2007-08-429</t>
+          <t>2007-08-0429</t>
         </is>
       </c>
       <c r="C1268" t="inlineStr">
@@ -53635,7 +53635,7 @@
       </c>
       <c r="B1269" t="inlineStr">
         <is>
-          <t>2007-08-430</t>
+          <t>2007-08-0430</t>
         </is>
       </c>
       <c r="C1269" t="inlineStr">
@@ -53677,7 +53677,7 @@
       </c>
       <c r="B1270" t="inlineStr">
         <is>
-          <t>2007-08-430</t>
+          <t>2007-08-0430</t>
         </is>
       </c>
       <c r="C1270" t="inlineStr">
@@ -53719,7 +53719,7 @@
       </c>
       <c r="B1271" t="inlineStr">
         <is>
-          <t>2007-08-501</t>
+          <t>2007-08-0501</t>
         </is>
       </c>
       <c r="C1271" t="inlineStr">
@@ -53761,7 +53761,7 @@
       </c>
       <c r="B1272" t="inlineStr">
         <is>
-          <t>2007-08-502</t>
+          <t>2007-08-0502</t>
         </is>
       </c>
       <c r="C1272" t="inlineStr">
@@ -53803,7 +53803,7 @@
       </c>
       <c r="B1273" t="inlineStr">
         <is>
-          <t>2007-08-502</t>
+          <t>2007-08-0502</t>
         </is>
       </c>
       <c r="C1273" t="inlineStr">
@@ -53845,7 +53845,7 @@
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>2007-08-502</t>
+          <t>2007-08-0502</t>
         </is>
       </c>
       <c r="C1274" t="inlineStr">
@@ -53887,7 +53887,7 @@
       </c>
       <c r="B1275" t="inlineStr">
         <is>
-          <t>2007-08-503</t>
+          <t>2007-08-0503</t>
         </is>
       </c>
       <c r="C1275" t="inlineStr">
@@ -53929,7 +53929,7 @@
       </c>
       <c r="B1276" t="inlineStr">
         <is>
-          <t>2007-08-503</t>
+          <t>2007-08-0503</t>
         </is>
       </c>
       <c r="C1276" t="inlineStr">
@@ -53971,7 +53971,7 @@
       </c>
       <c r="B1277" t="inlineStr">
         <is>
-          <t>2007-08-504</t>
+          <t>2007-08-0504</t>
         </is>
       </c>
       <c r="C1277" t="inlineStr">
@@ -54013,7 +54013,7 @@
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t>2007-08-504</t>
+          <t>2007-08-0504</t>
         </is>
       </c>
       <c r="C1278" t="inlineStr">
@@ -54055,7 +54055,7 @@
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>2007-08-505</t>
+          <t>2007-08-0505</t>
         </is>
       </c>
       <c r="C1279" t="inlineStr">
@@ -54097,7 +54097,7 @@
       </c>
       <c r="B1280" t="inlineStr">
         <is>
-          <t>2007-08-505</t>
+          <t>2007-08-0505</t>
         </is>
       </c>
       <c r="C1280" t="inlineStr">
@@ -54139,7 +54139,7 @@
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>2007-08-506</t>
+          <t>2007-08-0506</t>
         </is>
       </c>
       <c r="C1281" t="inlineStr">
@@ -54181,7 +54181,7 @@
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>2007-08-507</t>
+          <t>2007-08-0507</t>
         </is>
       </c>
       <c r="C1282" t="inlineStr">
@@ -54223,7 +54223,7 @@
       </c>
       <c r="B1283" t="inlineStr">
         <is>
-          <t>2007-08-507</t>
+          <t>2007-08-0507</t>
         </is>
       </c>
       <c r="C1283" t="inlineStr">
@@ -54265,7 +54265,7 @@
       </c>
       <c r="B1284" t="inlineStr">
         <is>
-          <t>2007-08-508</t>
+          <t>2007-08-0508</t>
         </is>
       </c>
       <c r="C1284" t="inlineStr">
@@ -54307,7 +54307,7 @@
       </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t>2007-08-508</t>
+          <t>2007-08-0508</t>
         </is>
       </c>
       <c r="C1285" t="inlineStr">
@@ -54349,7 +54349,7 @@
       </c>
       <c r="B1286" t="inlineStr">
         <is>
-          <t>2007-08-509</t>
+          <t>2007-08-0509</t>
         </is>
       </c>
       <c r="C1286" t="inlineStr">
@@ -54391,7 +54391,7 @@
       </c>
       <c r="B1287" t="inlineStr">
         <is>
-          <t>2007-08-510</t>
+          <t>2007-08-0510</t>
         </is>
       </c>
       <c r="C1287" t="inlineStr">
@@ -54433,7 +54433,7 @@
       </c>
       <c r="B1288" t="inlineStr">
         <is>
-          <t>2007-08-510</t>
+          <t>2007-08-0510</t>
         </is>
       </c>
       <c r="C1288" t="inlineStr">
@@ -54475,7 +54475,7 @@
       </c>
       <c r="B1289" t="inlineStr">
         <is>
-          <t>2007-08-511</t>
+          <t>2007-08-0511</t>
         </is>
       </c>
       <c r="C1289" t="inlineStr">
@@ -54517,7 +54517,7 @@
       </c>
       <c r="B1290" t="inlineStr">
         <is>
-          <t>2007-08-511</t>
+          <t>2007-08-0511</t>
         </is>
       </c>
       <c r="C1290" t="inlineStr">
@@ -54559,7 +54559,7 @@
       </c>
       <c r="B1291" t="inlineStr">
         <is>
-          <t>2007-08-512</t>
+          <t>2007-08-0512</t>
         </is>
       </c>
       <c r="C1291" t="inlineStr">
@@ -54601,7 +54601,7 @@
       </c>
       <c r="B1292" t="inlineStr">
         <is>
-          <t>2007-08-513</t>
+          <t>2007-08-0513</t>
         </is>
       </c>
       <c r="C1292" t="inlineStr">
@@ -54643,7 +54643,7 @@
       </c>
       <c r="B1293" t="inlineStr">
         <is>
-          <t>2007-08-513</t>
+          <t>2007-08-0513</t>
         </is>
       </c>
       <c r="C1293" t="inlineStr">
@@ -54685,7 +54685,7 @@
       </c>
       <c r="B1294" t="inlineStr">
         <is>
-          <t>2007-08-514</t>
+          <t>2007-08-0514</t>
         </is>
       </c>
       <c r="C1294" t="inlineStr">
@@ -54727,7 +54727,7 @@
       </c>
       <c r="B1295" t="inlineStr">
         <is>
-          <t>2007-08-514</t>
+          <t>2007-08-0514</t>
         </is>
       </c>
       <c r="C1295" t="inlineStr">
@@ -54769,7 +54769,7 @@
       </c>
       <c r="B1296" t="inlineStr">
         <is>
-          <t>2007-08-515</t>
+          <t>2007-08-0515</t>
         </is>
       </c>
       <c r="C1296" t="inlineStr">
@@ -54811,7 +54811,7 @@
       </c>
       <c r="B1297" t="inlineStr">
         <is>
-          <t>2007-08-516</t>
+          <t>2007-08-0516</t>
         </is>
       </c>
       <c r="C1297" t="inlineStr">
@@ -54853,7 +54853,7 @@
       </c>
       <c r="B1298" t="inlineStr">
         <is>
-          <t>2007-08-516</t>
+          <t>2007-08-0516</t>
         </is>
       </c>
       <c r="C1298" t="inlineStr">
@@ -54895,7 +54895,7 @@
       </c>
       <c r="B1299" t="inlineStr">
         <is>
-          <t>2007-08-518</t>
+          <t>2007-08-0518</t>
         </is>
       </c>
       <c r="C1299" t="inlineStr">
@@ -54937,7 +54937,7 @@
       </c>
       <c r="B1300" t="inlineStr">
         <is>
-          <t>2007-08-519</t>
+          <t>2007-08-0519</t>
         </is>
       </c>
       <c r="C1300" t="inlineStr">
@@ -54979,7 +54979,7 @@
       </c>
       <c r="B1301" t="inlineStr">
         <is>
-          <t>2007-08-520</t>
+          <t>2007-08-0520</t>
         </is>
       </c>
       <c r="C1301" t="inlineStr">
@@ -55021,7 +55021,7 @@
       </c>
       <c r="B1302" t="inlineStr">
         <is>
-          <t>2007-08-521</t>
+          <t>2007-08-0521</t>
         </is>
       </c>
       <c r="C1302" t="inlineStr">
@@ -55063,7 +55063,7 @@
       </c>
       <c r="B1303" t="inlineStr">
         <is>
-          <t>2007-08-522</t>
+          <t>2007-08-0522</t>
         </is>
       </c>
       <c r="C1303" t="inlineStr">
@@ -55105,7 +55105,7 @@
       </c>
       <c r="B1304" t="inlineStr">
         <is>
-          <t>2007-08-523</t>
+          <t>2007-08-0523</t>
         </is>
       </c>
       <c r="C1304" t="inlineStr">
@@ -55147,7 +55147,7 @@
       </c>
       <c r="B1305" t="inlineStr">
         <is>
-          <t>2007-08-524</t>
+          <t>2007-08-0524</t>
         </is>
       </c>
       <c r="C1305" t="inlineStr">
@@ -55189,7 +55189,7 @@
       </c>
       <c r="B1306" t="inlineStr">
         <is>
-          <t>2007-08-525</t>
+          <t>2007-08-0525</t>
         </is>
       </c>
       <c r="C1306" t="inlineStr">
@@ -55231,7 +55231,7 @@
       </c>
       <c r="B1307" t="inlineStr">
         <is>
-          <t>2007-08-526</t>
+          <t>2007-08-0526</t>
         </is>
       </c>
       <c r="C1307" t="inlineStr">
@@ -55273,7 +55273,7 @@
       </c>
       <c r="B1308" t="inlineStr">
         <is>
-          <t>2007-08-527</t>
+          <t>2007-08-0527</t>
         </is>
       </c>
       <c r="C1308" t="inlineStr">
@@ -55315,7 +55315,7 @@
       </c>
       <c r="B1309" t="inlineStr">
         <is>
-          <t>2007-08-528</t>
+          <t>2007-08-0528</t>
         </is>
       </c>
       <c r="C1309" t="inlineStr">
@@ -55357,7 +55357,7 @@
       </c>
       <c r="B1310" t="inlineStr">
         <is>
-          <t>2007-08-529</t>
+          <t>2007-08-0529</t>
         </is>
       </c>
       <c r="C1310" t="inlineStr">
@@ -55399,7 +55399,7 @@
       </c>
       <c r="B1311" t="inlineStr">
         <is>
-          <t>2007-08-530</t>
+          <t>2007-08-0530</t>
         </is>
       </c>
       <c r="C1311" t="inlineStr">
@@ -55441,7 +55441,7 @@
       </c>
       <c r="B1312" t="inlineStr">
         <is>
-          <t>2007-08-605</t>
+          <t>2007-08-0605</t>
         </is>
       </c>
       <c r="C1312" t="inlineStr">
@@ -55483,7 +55483,7 @@
       </c>
       <c r="B1313" t="inlineStr">
         <is>
-          <t>2007-08-608</t>
+          <t>2007-08-0608</t>
         </is>
       </c>
       <c r="C1313" t="inlineStr">
@@ -55525,7 +55525,7 @@
       </c>
       <c r="B1314" t="inlineStr">
         <is>
-          <t>2007-08-610</t>
+          <t>2007-08-0610</t>
         </is>
       </c>
       <c r="C1314" t="inlineStr">
@@ -55567,7 +55567,7 @@
       </c>
       <c r="B1315" t="inlineStr">
         <is>
-          <t>2007-08-612</t>
+          <t>2007-08-0612</t>
         </is>
       </c>
       <c r="C1315" t="inlineStr">
@@ -55609,7 +55609,7 @@
       </c>
       <c r="B1316" t="inlineStr">
         <is>
-          <t>2007-08-615</t>
+          <t>2007-08-0615</t>
         </is>
       </c>
       <c r="C1316" t="inlineStr">
@@ -55651,7 +55651,7 @@
       </c>
       <c r="B1317" t="inlineStr">
         <is>
-          <t>2007-08-617</t>
+          <t>2007-08-0617</t>
         </is>
       </c>
       <c r="C1317" t="inlineStr">

--- a/Odds-Data-Clean/2007-08.xlsx
+++ b/Odds-Data-Clean/2007-08.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -55688,6 +55688,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>